--- a/data/trans_orig/P04A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P04A-Provincia-trans_orig.xlsx
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10059</v>
+        <v>8886</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.009444041462824392</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03684647088619853</v>
+        <v>0.03254662713312791</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -812,19 +812,19 @@
         <v>3886</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1068</v>
+        <v>1048</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11625</v>
+        <v>11519</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01489733140379938</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.004092978413790272</v>
+        <v>0.004019425800794492</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04456854915727648</v>
+        <v>0.04416000102615737</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -833,19 +833,19 @@
         <v>6464</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2014</v>
+        <v>1765</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>15146</v>
+        <v>14464</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01210851834721338</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.003773028048287059</v>
+        <v>0.003305257474422286</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02837048412892321</v>
+        <v>0.02709318205573565</v>
       </c>
     </row>
     <row r="6">
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9721</v>
+        <v>8733</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.009431933472298941</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03560836324756886</v>
+        <v>0.03198650081223924</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5394</v>
+        <v>5337</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.00408475398578662</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0206776549427754</v>
+        <v>0.02045950590578725</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>3</v>
@@ -904,19 +904,19 @@
         <v>3640</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>10902</v>
+        <v>11531</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.006819302144659725</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.001728917323703375</v>
+        <v>0.001732171676519533</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02042096194848332</v>
+        <v>0.02159998728518355</v>
       </c>
     </row>
     <row r="7">
@@ -933,19 +933,19 @@
         <v>47203</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>33551</v>
+        <v>35650</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>62025</v>
+        <v>62137</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.172896608835158</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1228923228478941</v>
+        <v>0.1305822686039876</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2271897457866996</v>
+        <v>0.2275982196356522</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>35</v>
@@ -954,19 +954,19 @@
         <v>42140</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>29882</v>
+        <v>28866</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>55325</v>
+        <v>56144</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1615553295138729</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.114560092828252</v>
+        <v>0.1106651346691743</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2121031785340519</v>
+        <v>0.2152453134394357</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>74</v>
@@ -975,19 +975,19 @@
         <v>89342</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>72666</v>
+        <v>71343</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>109584</v>
+        <v>109048</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.167355260966616</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1361172172844928</v>
+        <v>0.1336394108811984</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2052716181527493</v>
+        <v>0.2042675457521055</v>
       </c>
     </row>
     <row r="8">
@@ -1004,19 +1004,19 @@
         <v>220654</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>204895</v>
+        <v>205544</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>234399</v>
+        <v>232774</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8082274162297187</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7505023510382564</v>
+        <v>0.7528821651305603</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8585714822837166</v>
+        <v>0.8526216596328309</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>206</v>
@@ -1025,19 +1025,19 @@
         <v>213747</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>200330</v>
+        <v>197806</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>226507</v>
+        <v>227135</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8194625850965411</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7680252210571054</v>
+        <v>0.7583471997281931</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8683835782669074</v>
+        <v>0.8707883702527345</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>434</v>
@@ -1046,19 +1046,19 @@
         <v>434401</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>412167</v>
+        <v>414925</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>452176</v>
+        <v>452572</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8137169185415108</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7720679498891051</v>
+        <v>0.77723465370039</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8470120200691096</v>
+        <v>0.8477544425502909</v>
       </c>
     </row>
     <row r="9">
@@ -1150,19 +1150,19 @@
         <v>3068</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>904</v>
+        <v>912</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8847</v>
+        <v>8349</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006222557168970752</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001834350234856478</v>
+        <v>0.001849643431006704</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01794316877240594</v>
+        <v>0.0169326777622338</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1171,19 +1171,19 @@
         <v>4815</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10860</v>
+        <v>10555</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.009555361324747623</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003629596308834384</v>
+        <v>0.003626152563828615</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02155029152742925</v>
+        <v>0.02094378625593774</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -1192,19 +1192,19 @@
         <v>7884</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3672</v>
+        <v>3534</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14797</v>
+        <v>14751</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007907133704433366</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003682739197330207</v>
+        <v>0.003545047398249027</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01484138227985958</v>
+        <v>0.01479550446060137</v>
       </c>
     </row>
     <row r="11">
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5258</v>
+        <v>5178</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.002110385656921538</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0106633047959592</v>
+        <v>0.01050071935393042</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5830</v>
+        <v>6452</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.003738420574667285</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01156945979244256</v>
+        <v>0.01280244553880883</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>3</v>
@@ -1263,19 +1263,19 @@
         <v>2925</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>7763</v>
+        <v>8782</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.002933281120669245</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0008994422365125911</v>
+        <v>0.0009061787612047388</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.00778597226119363</v>
+        <v>0.008808137094963739</v>
       </c>
     </row>
     <row r="12">
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6530</v>
+        <v>7216</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.002561837225960326</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01295667183229003</v>
+        <v>0.01431906162261643</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1</v>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>6714</v>
+        <v>7777</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.001294888831390526</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.006733964875498544</v>
+        <v>0.007800613820435337</v>
       </c>
     </row>
     <row r="13">
@@ -1355,19 +1355,19 @@
         <v>54974</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>41728</v>
+        <v>40892</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>70629</v>
+        <v>69541</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.111491413250129</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08462753511317933</v>
+        <v>0.08293182091028392</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1432414756379936</v>
+        <v>0.1410346724421732</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>51</v>
@@ -1376,19 +1376,19 @@
         <v>54979</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>42155</v>
+        <v>40081</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>70936</v>
+        <v>69974</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1090965389869171</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08364944985163962</v>
+        <v>0.07953450831573662</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1407595026358265</v>
+        <v>0.1388512854117602</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>101</v>
@@ -1397,19 +1397,19 @@
         <v>109953</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>91644</v>
+        <v>89272</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>133820</v>
+        <v>131896</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1102809163830397</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09191781993777823</v>
+        <v>0.08953827009648968</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1342196985772211</v>
+        <v>0.1322897156408619</v>
       </c>
     </row>
     <row r="14">
@@ -1426,19 +1426,19 @@
         <v>433993</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>417098</v>
+        <v>418751</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>448311</v>
+        <v>448706</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8801756439239787</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8459116362109096</v>
+        <v>0.8492636358592897</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9092141414320568</v>
+        <v>0.9100154371747761</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>440</v>
@@ -1447,19 +1447,19 @@
         <v>440979</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>424010</v>
+        <v>426061</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>455641</v>
+        <v>455442</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8750478418877077</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8413748002004426</v>
+        <v>0.8454448393483888</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9041418624242504</v>
+        <v>0.9037465358590699</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>851</v>
@@ -1468,19 +1468,19 @@
         <v>874972</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>849801</v>
+        <v>852970</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>895066</v>
+        <v>896415</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8775837799604671</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8523379413883703</v>
+        <v>0.8555163655688103</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8977377740735341</v>
+        <v>0.8990906058937621</v>
       </c>
     </row>
     <row r="15">
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4984</v>
+        <v>5198</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003125264724888662</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01563071711694075</v>
+        <v>0.01630188399397592</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4993</v>
+        <v>5021</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.001523065842183262</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.007631427073795008</v>
+        <v>0.007674653347743815</v>
       </c>
     </row>
     <row r="17">
@@ -1635,19 +1635,19 @@
         <v>10160</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5122</v>
+        <v>5065</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>18041</v>
+        <v>18250</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03186571207637715</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01606397778704562</v>
+        <v>0.01588473296609554</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05658242251393534</v>
+        <v>0.05723655284833082</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -1659,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4649</v>
+        <v>3744</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.002746184030822195</v>
@@ -1668,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01385986141821014</v>
+        <v>0.01116370720523742</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>11</v>
@@ -1677,19 +1677,19 @@
         <v>11081</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6006</v>
+        <v>5864</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>19183</v>
+        <v>19278</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01693728859661615</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.009179740803922072</v>
+        <v>0.008963236617859157</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02932001370406614</v>
+        <v>0.02946547186931632</v>
       </c>
     </row>
     <row r="18">
@@ -1706,19 +1706,19 @@
         <v>7361</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3651</v>
+        <v>3652</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14079</v>
+        <v>15550</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02308794302616306</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01145179653419676</v>
+        <v>0.01145529410918478</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04415544024832359</v>
+        <v>0.04877022706505584</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>6</v>
@@ -1727,19 +1727,19 @@
         <v>5913</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2028</v>
+        <v>1994</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>12663</v>
+        <v>11912</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01762863592570098</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.006046572639942992</v>
+        <v>0.005945922817617333</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03775505465665783</v>
+        <v>0.03551411106205844</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>14</v>
@@ -1748,19 +1748,19 @@
         <v>13274</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>7531</v>
+        <v>7591</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>20964</v>
+        <v>21895</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02028917347968325</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01151093471655689</v>
+        <v>0.01160199268786035</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03204289796454444</v>
+        <v>0.03346598293705075</v>
       </c>
     </row>
     <row r="19">
@@ -1777,19 +1777,19 @@
         <v>33406</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>23274</v>
+        <v>23411</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>47076</v>
+        <v>46363</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1047712406104367</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07299386777722759</v>
+        <v>0.07342477627329379</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1476442765960673</v>
+        <v>0.14540758942722</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>25</v>
@@ -1798,19 +1798,19 @@
         <v>27772</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>19269</v>
+        <v>18363</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>40496</v>
+        <v>39104</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08280065966525202</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05744966050194773</v>
+        <v>0.05474687558690304</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1207359725150054</v>
+        <v>0.1165856605144868</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>53</v>
@@ -1819,19 +1819,19 @@
         <v>61178</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>46167</v>
+        <v>46557</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>77969</v>
+        <v>79573</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09350779788111156</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07056393062814248</v>
+        <v>0.07116059471674836</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1191709635401754</v>
+        <v>0.1216226335629151</v>
       </c>
     </row>
     <row r="20">
@@ -1848,19 +1848,19 @@
         <v>266922</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>253159</v>
+        <v>252712</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>279860</v>
+        <v>279456</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8371498395621345</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7939848451572029</v>
+        <v>0.792584321847267</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.877729257252569</v>
+        <v>0.876459581213556</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>303</v>
@@ -1869,19 +1869,19 @@
         <v>300806</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>287303</v>
+        <v>288854</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>310739</v>
+        <v>311161</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8968245203782248</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8565687375267398</v>
+        <v>0.8611915026517691</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9264388738059972</v>
+        <v>0.9276969809265571</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>566</v>
@@ -1890,19 +1890,19 @@
         <v>567728</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>548199</v>
+        <v>547371</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>584044</v>
+        <v>584391</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8677426742004057</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8378936116808776</v>
+        <v>0.836628968291929</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8926820499776235</v>
+        <v>0.8932122762602904</v>
       </c>
     </row>
     <row r="21">
@@ -1997,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5433</v>
+        <v>5566</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.003068387039435259</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01514692017423345</v>
+        <v>0.01551792952055385</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -2018,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>6776</v>
+        <v>6679</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.005175344491185284</v>
@@ -2027,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01824131053114999</v>
+        <v>0.01798187812084064</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3</v>
@@ -2036,19 +2036,19 @@
         <v>3023</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>8133</v>
+        <v>9079</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.004140312650941728</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.001300372491757401</v>
+        <v>0.001302649126823989</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01113904479157885</v>
+        <v>0.01243506270286637</v>
       </c>
     </row>
     <row r="23">
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5548</v>
+        <v>5239</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.002739889883211117</v>
@@ -2077,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01546860401622403</v>
+        <v>0.01460743093283944</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1</v>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>4178</v>
+        <v>5371</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.002413535813652334</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01124891851068419</v>
+        <v>0.01445961452966581</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2</v>
@@ -2110,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6458</v>
+        <v>6610</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.002573855545266201</v>
@@ -2119,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.008844921502650576</v>
+        <v>0.009052764386329674</v>
       </c>
     </row>
     <row r="24">
@@ -2139,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10329</v>
+        <v>8499</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.004800473411806855</v>
@@ -2148,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02879709688091413</v>
+        <v>0.02369586989363122</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>8471</v>
+        <v>8320</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.006985160412902119</v>
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02280433611564606</v>
+        <v>0.02239948461386941</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3</v>
@@ -2178,19 +2178,19 @@
         <v>4316</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>11826</v>
+        <v>11533</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.005911944337645519</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.001439327472771483</v>
+        <v>0.001443889579723945</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01619682938173638</v>
+        <v>0.01579620066879919</v>
       </c>
     </row>
     <row r="25">
@@ -2207,19 +2207,19 @@
         <v>39026</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>28093</v>
+        <v>27120</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>55520</v>
+        <v>53662</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1088070432296265</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0783251291434455</v>
+        <v>0.07561381525202916</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1547944224657348</v>
+        <v>0.1496145375443091</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>31</v>
@@ -2228,19 +2228,19 @@
         <v>32945</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>22858</v>
+        <v>23934</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>46147</v>
+        <v>46195</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08869177143947811</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0615359812942391</v>
+        <v>0.06443312032436201</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.124232843907755</v>
+        <v>0.1243617358557097</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>66</v>
@@ -2249,19 +2249,19 @@
         <v>71971</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>56663</v>
+        <v>55679</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>90496</v>
+        <v>90218</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09857329361291528</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07760706738350498</v>
+        <v>0.0762588021305559</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1239458544711316</v>
+        <v>0.1235641587975224</v>
       </c>
     </row>
     <row r="26">
@@ -2278,19 +2278,19 @@
         <v>315840</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>299489</v>
+        <v>300920</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>327567</v>
+        <v>327650</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8805842064359203</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8349970044210034</v>
+        <v>0.8389856801978174</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9132807124886854</v>
+        <v>0.9135109049173737</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>348</v>
@@ -2299,19 +2299,19 @@
         <v>333097</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>319142</v>
+        <v>319745</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>344196</v>
+        <v>343346</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8967341878427821</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8591637769387118</v>
+        <v>0.8607893057176279</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.926613089100765</v>
+        <v>0.9243246619060037</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>672</v>
@@ -2320,19 +2320,19 @@
         <v>648937</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>629141</v>
+        <v>629501</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>664402</v>
+        <v>666279</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8888005938532313</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8616866560552253</v>
+        <v>0.8621802795096161</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9099809720973638</v>
+        <v>0.9125518627508633</v>
       </c>
     </row>
     <row r="27">
@@ -2427,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>4527</v>
+        <v>4485</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.004420293520900945</v>
@@ -2436,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02226769900451221</v>
+        <v>0.022061864235142</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3</v>
@@ -2445,19 +2445,19 @@
         <v>3444</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>9599</v>
+        <v>9923</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01658389530915406</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.004352687088159597</v>
+        <v>0.004349309793757613</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04622177844884207</v>
+        <v>0.04778094312243716</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4</v>
@@ -2466,19 +2466,19 @@
         <v>4343</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>11161</v>
+        <v>10999</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01056661489598271</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.002244722110825003</v>
+        <v>0.002243244219099662</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02715748864538105</v>
+        <v>0.0267626108861993</v>
       </c>
     </row>
     <row r="29">
@@ -2498,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7206</v>
+        <v>6291</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.008839567527815638</v>
@@ -2507,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03544543077780761</v>
+        <v>0.03094128150860586</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>5182</v>
+        <v>4643</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.004412205786951858</v>
@@ -2528,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02495174950941571</v>
+        <v>0.02235789110165703</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3</v>
@@ -2537,19 +2537,19 @@
         <v>2713</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>8097</v>
+        <v>8149</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.006602402206490338</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.002167957191650168</v>
+        <v>0.002177002115530249</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0197020439517036</v>
+        <v>0.01982826643693833</v>
       </c>
     </row>
     <row r="30">
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5122</v>
+        <v>5685</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.008183808686644185</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02519502563384957</v>
+        <v>0.02796354193999161</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2</v>
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>6560</v>
+        <v>6618</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.009380012323107373</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03159081789697088</v>
+        <v>0.03186961328017646</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>4</v>
@@ -2608,19 +2608,19 @@
         <v>3612</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>932</v>
+        <v>921</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>8250</v>
+        <v>9043</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.008788255634820719</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.002267468017099912</v>
+        <v>0.002241182796957574</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02007335745009674</v>
+        <v>0.02200324626768175</v>
       </c>
     </row>
     <row r="31">
@@ -2637,19 +2637,19 @@
         <v>28966</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>19338</v>
+        <v>19966</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>40587</v>
+        <v>41445</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1424736673891207</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.09511879095500964</v>
+        <v>0.09820464292089234</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1996321856779568</v>
+        <v>0.2038513936942673</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>15</v>
@@ -2658,19 +2658,19 @@
         <v>18114</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>10648</v>
+        <v>10552</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>29767</v>
+        <v>29104</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.08722485875609973</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05127223657639458</v>
+        <v>0.05081198553659283</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1433381836516785</v>
+        <v>0.1401472404845983</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>39</v>
@@ -2679,19 +2679,19 @@
         <v>47080</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>34550</v>
+        <v>34885</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>62036</v>
+        <v>63988</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1145562018751738</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.08406743640273513</v>
+        <v>0.08488271798748717</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1509482089085765</v>
+        <v>0.1556980524948873</v>
       </c>
     </row>
     <row r="32">
@@ -2708,19 +2708,19 @@
         <v>169982</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>158679</v>
+        <v>157293</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>180053</v>
+        <v>179483</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8360826628755185</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7804845737312226</v>
+        <v>0.7736707349092955</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8856178658383431</v>
+        <v>0.8828140133979711</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>177</v>
@@ -2729,19 +2729,19 @@
         <v>183246</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>171927</v>
+        <v>171000</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>192112</v>
+        <v>191555</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8823990278246869</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8278921772137446</v>
+        <v>0.8234312987554888</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9250934138545006</v>
+        <v>0.9224109259950199</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>354</v>
@@ -2750,19 +2750,19 @@
         <v>353228</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>334974</v>
+        <v>335753</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>365003</v>
+        <v>366579</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8594865253875325</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8150685586073777</v>
+        <v>0.8169651801602059</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8881382170398943</v>
+        <v>0.8919713377578412</v>
       </c>
     </row>
     <row r="33">
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>4448</v>
+        <v>4425</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.003245864057900807</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01642323404254359</v>
+        <v>0.01634048170037653</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>6389</v>
+        <v>6184</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.007376363120703229</v>
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02296947886402616</v>
+        <v>0.0222319020106199</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>3</v>
@@ -2896,19 +2896,19 @@
         <v>2931</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>8021</v>
+        <v>8484</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.005338701399682831</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.001604868020469863</v>
+        <v>0.001588642652307927</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01461111074110335</v>
+        <v>0.01545533909816635</v>
       </c>
     </row>
     <row r="35">
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>6748</v>
+        <v>7675</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.007642453722541969</v>
@@ -2984,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02491932480055754</v>
+        <v>0.02834163448893494</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>7217</v>
+        <v>6307</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.003770182529596791</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01314767333392708</v>
+        <v>0.01148930438814877</v>
       </c>
     </row>
     <row r="37">
@@ -3035,19 +3035,19 @@
         <v>31684</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>22536</v>
+        <v>21828</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>44497</v>
+        <v>44035</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1169982412651927</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.08321777696285008</v>
+        <v>0.08060182920899021</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.164311137622167</v>
+        <v>0.1626035384752747</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>26</v>
@@ -3056,19 +3056,19 @@
         <v>27524</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>18648</v>
+        <v>17459</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>39649</v>
+        <v>37895</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.09895487911311998</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.06704348177558485</v>
+        <v>0.06276863355262985</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1425488134682977</v>
+        <v>0.1362422234201286</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>55</v>
@@ -3077,19 +3077,19 @@
         <v>59208</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>44952</v>
+        <v>45390</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>74875</v>
+        <v>77127</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1078560476684862</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.08188630142700098</v>
+        <v>0.08268420473303748</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1363961708604409</v>
+        <v>0.1404976722218955</v>
       </c>
     </row>
     <row r="38">
@@ -3106,19 +3106,19 @@
         <v>236178</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>222771</v>
+        <v>224065</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>245908</v>
+        <v>246702</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.8721134409543645</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8226079100808835</v>
+        <v>0.8273863372308152</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9080423791194122</v>
+        <v>0.9109736088386043</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>242</v>
@@ -3127,19 +3127,19 @@
         <v>248569</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>235681</v>
+        <v>237542</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>257331</v>
+        <v>258669</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.8936687577661768</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8473359482093665</v>
+        <v>0.8540240174353564</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9251710376537526</v>
+        <v>0.9299817172196845</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>476</v>
@@ -3148,19 +3148,19 @@
         <v>484747</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>468067</v>
+        <v>467798</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>499038</v>
+        <v>499287</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.8830350684022341</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.8526511940806945</v>
+        <v>0.8521613757257666</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9090693112234908</v>
+        <v>0.9095226443366407</v>
       </c>
     </row>
     <row r="39">
@@ -3252,19 +3252,19 @@
         <v>2688</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>7643</v>
+        <v>7601</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.004370324488853208</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.00133196980207784</v>
+        <v>0.001338971720226991</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01242745375700919</v>
+        <v>0.01235857142549692</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>0</v>
@@ -3286,19 +3286,19 @@
         <v>2688</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>7495</v>
+        <v>7372</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.002144724567906386</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.0006532687315919614</v>
+        <v>0.0006520562220371823</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.005980795389163684</v>
+        <v>0.005882096709472189</v>
       </c>
     </row>
     <row r="41">
@@ -3315,19 +3315,19 @@
         <v>5677</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1760</v>
+        <v>1837</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>13364</v>
+        <v>12750</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.009230072247016633</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.00286220306678182</v>
+        <v>0.002986277946547513</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.02172971480796949</v>
+        <v>0.02073144875149973</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>4</v>
@@ -3336,19 +3336,19 @@
         <v>3783</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>921</v>
+        <v>1078</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>9202</v>
+        <v>10662</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.005927269815622027</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.001442691105357697</v>
+        <v>0.001688997046290244</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01441876291680886</v>
+        <v>0.01670544263902992</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>9</v>
@@ -3357,19 +3357,19 @@
         <v>9460</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>4624</v>
+        <v>4544</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>19698</v>
+        <v>18119</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.007548110907769793</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.003689416510437907</v>
+        <v>0.003625589705196509</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.0157174318350226</v>
+        <v>0.01445802616695285</v>
       </c>
     </row>
     <row r="42">
@@ -3402,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>7984</v>
+        <v>8835</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.002496613102369461</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.01250992709132902</v>
+        <v>0.01384397063162978</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1</v>
@@ -3423,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>7967</v>
+        <v>8035</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.001271407177531184</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.006357311156576711</v>
+        <v>0.006411715052281674</v>
       </c>
     </row>
     <row r="43">
@@ -3449,19 +3449,19 @@
         <v>98502</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>80076</v>
+        <v>80412</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>119032</v>
+        <v>122853</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.16015845972091</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1301995381797924</v>
+        <v>0.1307448550549674</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1935396060305016</v>
+        <v>0.1997529517391447</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>74</v>
@@ -3470,19 +3470,19 @@
         <v>90413</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>71194</v>
+        <v>72087</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>110157</v>
+        <v>110350</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1416648748883043</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1115515962390966</v>
+        <v>0.112950591445476</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1726010409954684</v>
+        <v>0.1729028620402356</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>154</v>
@@ -3491,19 +3491,19 @@
         <v>188915</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>163221</v>
+        <v>158819</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>221016</v>
+        <v>216766</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1507405501248491</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1302387471222344</v>
+        <v>0.126725935077023</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1763548634071112</v>
+        <v>0.1729636833466296</v>
       </c>
     </row>
     <row r="44">
@@ -3520,19 +3520,19 @@
         <v>508161</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>487666</v>
+        <v>483306</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>528294</v>
+        <v>527768</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.8262411435432201</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.792918767730117</v>
+        <v>0.7858295653835713</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.8589776116993811</v>
+        <v>0.8581220711454683</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>542</v>
@@ -3541,19 +3541,19 @@
         <v>542430</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>521694</v>
+        <v>521994</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>561601</v>
+        <v>560494</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.8499112421937042</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.8174208351221169</v>
+        <v>0.8178913010540907</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.8799496431610008</v>
+        <v>0.8782153336364854</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1052</v>
@@ -3562,19 +3562,19 @@
         <v>1050590</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1018633</v>
+        <v>1020614</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1078183</v>
+        <v>1080917</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.8382952072219435</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.812795349400343</v>
+        <v>0.8143764632766756</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.8603122585064976</v>
+        <v>0.8624941748486716</v>
       </c>
     </row>
     <row r="45">
@@ -3666,19 +3666,19 @@
         <v>5505</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>2212</v>
+        <v>2109</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>12429</v>
+        <v>11320</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.007400825236274404</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.002974569548397837</v>
+        <v>0.002834795962685176</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01671064211101092</v>
+        <v>0.01521890785738586</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>4</v>
@@ -3687,19 +3687,19 @@
         <v>4593</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>10781</v>
+        <v>11390</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.005862391306748911</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.001466246031914278</v>
+        <v>0.001467678662101021</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.01375983291093989</v>
+        <v>0.01453735812637457</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>9</v>
@@ -3708,19 +3708,19 @@
         <v>10098</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>4515</v>
+        <v>4582</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>17792</v>
+        <v>19270</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.006611605608039081</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.002955923971578245</v>
+        <v>0.003000077373739871</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01164938871622303</v>
+        <v>0.01261668744211918</v>
       </c>
     </row>
     <row r="47">
@@ -3737,19 +3737,19 @@
         <v>5694</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>2017</v>
+        <v>2103</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>11475</v>
+        <v>12838</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.007655733480887016</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.002711892605455636</v>
+        <v>0.002826829546437968</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.01542720056346376</v>
+        <v>0.01726077120106595</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>1</v>
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>8805</v>
+        <v>5623</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.001489675643707152</v>
@@ -3770,7 +3770,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.01123732120216147</v>
+        <v>0.00717682439167979</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>7</v>
@@ -3779,19 +3779,19 @@
         <v>6861</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>2933</v>
+        <v>2728</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>14440</v>
+        <v>13676</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.004492533696650879</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.00192059498532136</v>
+        <v>0.001786116924195603</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.009454726892887432</v>
+        <v>0.008954332115511776</v>
       </c>
     </row>
     <row r="48">
@@ -3855,19 +3855,19 @@
         <v>61968</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>46833</v>
+        <v>48061</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>80709</v>
+        <v>80037</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.0833133962062942</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.06296515381169929</v>
+        <v>0.06461655273727687</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1085097942209477</v>
+        <v>0.1076057999667129</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>49</v>
@@ -3876,19 +3876,19 @@
         <v>54518</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>41669</v>
+        <v>41467</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>71367</v>
+        <v>71348</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.06958186377725509</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.05318282647644843</v>
+        <v>0.05292414256371061</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.09108562468958054</v>
+        <v>0.09106210508598715</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>105</v>
@@ -3897,19 +3897,19 @@
         <v>116486</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>95463</v>
+        <v>95941</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>139301</v>
+        <v>140803</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.07626909309339412</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.06250435266788266</v>
+        <v>0.06281689412277106</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.09120683915583226</v>
+        <v>0.09219041124606987</v>
       </c>
     </row>
     <row r="50">
@@ -3926,19 +3926,19 @@
         <v>670628</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>652731</v>
+        <v>651546</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>687480</v>
+        <v>686341</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.9016300450765444</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.8775686841422418</v>
+        <v>0.8759748511914591</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.9242862955190723</v>
+        <v>0.9227555919911099</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>691</v>
@@ -3947,19 +3947,19 @@
         <v>723232</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>706834</v>
+        <v>705396</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>738265</v>
+        <v>736502</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.9230660692722888</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.9021366208967162</v>
+        <v>0.9003009087179733</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.9422525455233131</v>
+        <v>0.9400026595015213</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>1360</v>
@@ -3968,19 +3968,19 @@
         <v>1393860</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>1370295</v>
+        <v>1369653</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>1416555</v>
+        <v>1415127</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.912626767601916</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.8971971483147569</v>
+        <v>0.896776904889018</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.9274859636117788</v>
+        <v>0.9265512727143125</v>
       </c>
     </row>
     <row r="51">
@@ -4072,19 +4072,19 @@
         <v>15135</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>8860</v>
+        <v>9005</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>24608</v>
+        <v>24733</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.004619340509290058</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.00270405320047719</v>
+        <v>0.002748343256867982</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.007510287032535694</v>
+        <v>0.007548370937561344</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>16</v>
@@ -4093,19 +4093,19 @@
         <v>16827</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>9176</v>
+        <v>10132</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>28116</v>
+        <v>27672</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.004979499332549223</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.002715297085132875</v>
+        <v>0.002998233411121078</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.008320277775867047</v>
+        <v>0.008188781996447283</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>31</v>
@@ -4114,19 +4114,19 @@
         <v>31962</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>22784</v>
+        <v>22220</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>44997</v>
+        <v>45691</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.004802197353311513</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.003423230178256833</v>
+        <v>0.003338446055306611</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.006760564816695119</v>
+        <v>0.006864957904129547</v>
       </c>
     </row>
     <row r="53">
@@ -4143,19 +4143,19 @@
         <v>27930</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>18992</v>
+        <v>17822</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>40313</v>
+        <v>39262</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.008524247577108618</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.005796504031634685</v>
+        <v>0.005439356069996203</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.012303635737908</v>
+        <v>0.01198285570512145</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>13</v>
@@ -4164,19 +4164,19 @@
         <v>13454</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>7547</v>
+        <v>7374</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>23673</v>
+        <v>23061</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.003981341857051107</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.002233512459744685</v>
+        <v>0.002182246489381799</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.007005466452248253</v>
+        <v>0.006824341822401269</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>40</v>
@@ -4185,19 +4185,19 @@
         <v>41384</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>30347</v>
+        <v>30653</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>55276</v>
+        <v>55881</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.006217761246607228</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.004559499373585078</v>
+        <v>0.004605545127465441</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.00830496602029538</v>
+        <v>0.008395953977623905</v>
       </c>
     </row>
     <row r="54">
@@ -4214,19 +4214,19 @@
         <v>15392</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>8153</v>
+        <v>8358</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>24629</v>
+        <v>25211</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.004697571530611167</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.002488269206929398</v>
+        <v>0.002550850334892301</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.007516735210079955</v>
+        <v>0.007694331398129904</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>13</v>
@@ -4235,19 +4235,19 @@
         <v>14405</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>7959</v>
+        <v>7860</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>24913</v>
+        <v>25417</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.00426294931785279</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.002355272982369692</v>
+        <v>0.002326044489686253</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.007372327321500633</v>
+        <v>0.007521547484283776</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>28</v>
@@ -4256,19 +4256,19 @@
         <v>29797</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>20117</v>
+        <v>19960</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>42718</v>
+        <v>42240</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.00447690875343014</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.003022572594222518</v>
+        <v>0.002998891560133062</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.006418220035474349</v>
+        <v>0.006346457535051174</v>
       </c>
     </row>
     <row r="55">
@@ -4285,19 +4285,19 @@
         <v>395728</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>356616</v>
+        <v>360125</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>435327</v>
+        <v>437719</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.1207761554720217</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1088389788644158</v>
+        <v>0.1099100877291272</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.132861784570967</v>
+        <v>0.1335917404178344</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>306</v>
@@ -4306,19 +4306,19 @@
         <v>348405</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>315519</v>
+        <v>310517</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>390988</v>
+        <v>387199</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.1031029523099967</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.09337111845965353</v>
+        <v>0.09189088021507495</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.1157045511477842</v>
+        <v>0.1145832022422354</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>647</v>
@@ -4327,19 +4327,19 @@
         <v>744134</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>693752</v>
+        <v>693077</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>796587</v>
+        <v>797683</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.1118032636663629</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.1042336481635102</v>
+        <v>0.10413216736405</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.1196842062889564</v>
+        <v>0.1198488418124087</v>
       </c>
     </row>
     <row r="56">
@@ -4356,19 +4356,19 @@
         <v>2822357</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>2779624</v>
+        <v>2777172</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>2860309</v>
+        <v>2859109</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.8613826849109685</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.848340597214342</v>
+        <v>0.8475921546070919</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.8729656236920722</v>
+        <v>0.8725991744845083</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>2949</v>
@@ -4377,19 +4377,19 @@
         <v>2986106</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>2943977</v>
+        <v>2941924</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>3024624</v>
+        <v>3025176</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.8836732571825502</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.8712062063721812</v>
+        <v>0.8705986662967968</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.8950719257466931</v>
+        <v>0.8952351209178014</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>5765</v>
@@ -4398,19 +4398,19 @@
         <v>5808464</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>5751108</v>
+        <v>5751544</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>5862433</v>
+        <v>5863789</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.8726998689802882</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.864082266563435</v>
+        <v>0.8641477429144888</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.8808084327611279</v>
+        <v>0.8810121936423789</v>
       </c>
     </row>
     <row r="57">
@@ -4746,19 +4746,19 @@
         <v>2963</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8840</v>
+        <v>8599</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01008377900233984</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002969731901619616</v>
+        <v>0.002979462534688651</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03008176836178406</v>
+        <v>0.02926355719202044</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -4767,19 +4767,19 @@
         <v>3211</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1018</v>
+        <v>1034</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8682</v>
+        <v>9353</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01126888554273357</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003574321328925199</v>
+        <v>0.00362797002982211</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03046976703895502</v>
+        <v>0.03282503610610438</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -4788,19 +4788,19 @@
         <v>6174</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2174</v>
+        <v>2235</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12765</v>
+        <v>13203</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01066719099709447</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003756581383994125</v>
+        <v>0.003861450298013817</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02205383759445194</v>
+        <v>0.02281178614060432</v>
       </c>
     </row>
     <row r="5">
@@ -4911,19 +4911,19 @@
         <v>65630</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>51435</v>
+        <v>51452</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>80817</v>
+        <v>82383</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2233388045597513</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1750340924079867</v>
+        <v>0.1750909070057449</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2750184168742854</v>
+        <v>0.2803489658497436</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>38</v>
@@ -4932,19 +4932,19 @@
         <v>46767</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>35101</v>
+        <v>34239</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>62867</v>
+        <v>61733</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1641351182880129</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1231928269464234</v>
+        <v>0.1201666834952648</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2206397342966479</v>
+        <v>0.2166598718068001</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>96</v>
@@ -4953,19 +4953,19 @@
         <v>112397</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>94902</v>
+        <v>92155</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>132917</v>
+        <v>134477</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1941936268669956</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1639670883213749</v>
+        <v>0.1592201156516255</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2296466840681346</v>
+        <v>0.2323420230903137</v>
       </c>
     </row>
     <row r="8">
@@ -4982,19 +4982,19 @@
         <v>225266</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>209722</v>
+        <v>209039</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>239372</v>
+        <v>239881</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7665774164379089</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.713682895202309</v>
+        <v>0.7113589271310389</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8145803302306391</v>
+        <v>0.8163120446776515</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>213</v>
@@ -5003,19 +5003,19 @@
         <v>234952</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>219273</v>
+        <v>219507</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>246621</v>
+        <v>248147</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8245959961692535</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7695686108397176</v>
+        <v>0.7703897133236663</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8655499623148422</v>
+        <v>0.8709057070027975</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>433</v>
@@ -5024,19 +5024,19 @@
         <v>460218</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>439031</v>
+        <v>438585</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>479591</v>
+        <v>479583</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7951391821359099</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7585340203633556</v>
+        <v>0.757762364967951</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8286118919582902</v>
+        <v>0.8285964383708133</v>
       </c>
     </row>
     <row r="9">
@@ -5128,19 +5128,19 @@
         <v>5260</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1405</v>
+        <v>1421</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13377</v>
+        <v>14246</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01044525470595035</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00279056622682923</v>
+        <v>0.002822635517361038</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0265657343272063</v>
+        <v>0.02829088818835774</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -5152,16 +5152,16 @@
         <v>995</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11910</v>
+        <v>11698</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.007562966043909033</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001908256223584935</v>
+        <v>0.001906876746880207</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02283076890049767</v>
+        <v>0.02242506038277447</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -5170,19 +5170,19 @@
         <v>9205</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4093</v>
+        <v>3819</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20739</v>
+        <v>18576</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.00897863993852809</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003992341060932702</v>
+        <v>0.003725487976514474</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02022888753128271</v>
+        <v>0.01811923966337079</v>
       </c>
     </row>
     <row r="11">
@@ -5215,7 +5215,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5211</v>
+        <v>5022</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.001982571459999019</v>
@@ -5224,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.009988362329855671</v>
+        <v>0.009627583128628749</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1</v>
@@ -5236,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>5186</v>
+        <v>5159</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.00100880547427376</v>
@@ -5245,7 +5245,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.005059007304366401</v>
+        <v>0.005032552069346323</v>
       </c>
     </row>
     <row r="12">
@@ -5309,19 +5309,19 @@
         <v>85310</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>68555</v>
+        <v>67073</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>104360</v>
+        <v>104369</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.169421420202807</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1361457433286867</v>
+        <v>0.1332032716020986</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2072535879386377</v>
+        <v>0.2072695550257878</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>70</v>
@@ -5330,19 +5330,19 @@
         <v>77212</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>61198</v>
+        <v>60933</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>94324</v>
+        <v>95312</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1480117483529509</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1173139418734931</v>
+        <v>0.1168061149166947</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1808156703000718</v>
+        <v>0.1827087324783852</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>146</v>
@@ -5351,19 +5351,19 @@
         <v>162522</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>140814</v>
+        <v>139028</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>189877</v>
+        <v>186119</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1585273895964397</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1373534459550473</v>
+        <v>0.1356105475077086</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1852104630784763</v>
+        <v>0.1815448085747969</v>
       </c>
     </row>
     <row r="14">
@@ -5380,19 +5380,19 @@
         <v>412970</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>392393</v>
+        <v>392478</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>430853</v>
+        <v>431631</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8201333250912426</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7792679054503159</v>
+        <v>0.7794376944820711</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8556473539476661</v>
+        <v>0.8571936147001061</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>404</v>
@@ -5401,19 +5401,19 @@
         <v>439468</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>421699</v>
+        <v>418972</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>456576</v>
+        <v>455946</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.842442714143141</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8083809595806053</v>
+        <v>0.8031537264953612</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8752384733173483</v>
+        <v>0.8740297832083986</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>794</v>
@@ -5422,19 +5422,19 @@
         <v>852437</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>826218</v>
+        <v>828351</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>875705</v>
+        <v>876764</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8314851649907584</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8059106988476352</v>
+        <v>0.8079914804629752</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.854181750288736</v>
+        <v>0.8552140557750011</v>
       </c>
     </row>
     <row r="15">
@@ -5529,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7011</v>
+        <v>6675</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006317223518459907</v>
@@ -5538,7 +5538,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02163635736989683</v>
+        <v>0.0205985447716628</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -5547,19 +5547,19 @@
         <v>6164</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2912</v>
+        <v>2913</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13059</v>
+        <v>12654</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01807548406230677</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0085382731049928</v>
+        <v>0.008540833987640004</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03829468190843029</v>
+        <v>0.0371055964609663</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -5568,19 +5568,19 @@
         <v>8211</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3970</v>
+        <v>3952</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15467</v>
+        <v>16039</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01234640265664856</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005969818835289128</v>
+        <v>0.00594256607615482</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02325650166936174</v>
+        <v>0.02411693413716594</v>
       </c>
     </row>
     <row r="17">
@@ -5691,19 +5691,19 @@
         <v>21617</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>13366</v>
+        <v>13484</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>30960</v>
+        <v>32272</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06670988199737794</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04124730100116018</v>
+        <v>0.04161199916021598</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09554071362500498</v>
+        <v>0.09958970033736729</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>25</v>
@@ -5712,19 +5712,19 @@
         <v>27746</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>19126</v>
+        <v>18599</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>40639</v>
+        <v>40016</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08136079547295988</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05608464278940991</v>
+        <v>0.05454065875743993</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1191697427887044</v>
+        <v>0.1173408962364467</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>47</v>
@@ -5733,19 +5733,19 @@
         <v>49363</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>36530</v>
+        <v>37101</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>65749</v>
+        <v>64789</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07422230116456593</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05492702013763421</v>
+        <v>0.0557854868307691</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09886107219841701</v>
+        <v>0.09741722644786131</v>
       </c>
     </row>
     <row r="20">
@@ -5762,19 +5762,19 @@
         <v>300382</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>290500</v>
+        <v>288846</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>308669</v>
+        <v>308645</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9269728944841622</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8964763985366941</v>
+        <v>0.8913743942565924</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9525467228658639</v>
+        <v>0.9524737321997371</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>286</v>
@@ -5783,19 +5783,19 @@
         <v>307110</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>293402</v>
+        <v>293992</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>316090</v>
+        <v>317032</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9005637204647333</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8603661027263312</v>
+        <v>0.8620946098838431</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.926896331571242</v>
+        <v>0.9296587275961219</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>581</v>
@@ -5804,19 +5804,19 @@
         <v>607492</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>591527</v>
+        <v>590183</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>620622</v>
+        <v>620296</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9134312961787855</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8894259147405993</v>
+        <v>0.8874047150959063</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9331729834140204</v>
+        <v>0.932683991715668</v>
       </c>
     </row>
     <row r="21">
@@ -5908,19 +5908,19 @@
         <v>2951</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8360</v>
+        <v>8799</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.007891614004277242</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002465931728891877</v>
+        <v>0.002466972048007715</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0223542810032903</v>
+        <v>0.02352859111423975</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -5929,19 +5929,19 @@
         <v>3842</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>953</v>
+        <v>961</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11718</v>
+        <v>11204</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.009876937767614209</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.002450173239233642</v>
+        <v>0.002470539337614278</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03012789175417342</v>
+        <v>0.02880555576103847</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6</v>
@@ -5950,19 +5950,19 @@
         <v>6793</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2793</v>
+        <v>2838</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>14699</v>
+        <v>14373</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.008903752085537741</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.003661378176680685</v>
+        <v>0.003719410023215877</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01926620427424869</v>
+        <v>0.01883976392092077</v>
       </c>
     </row>
     <row r="23">
@@ -5979,19 +5979,19 @@
         <v>3885</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>9843</v>
+        <v>8871</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01038891459797626</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.002594834426677711</v>
+        <v>0.002607183319601694</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02631904222514492</v>
+        <v>0.02371980458411611</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3</v>
@@ -6000,19 +6000,19 @@
         <v>3810</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>926</v>
+        <v>931</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>11192</v>
+        <v>11423</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.009794867155591564</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.002381716691350802</v>
+        <v>0.002394205094157868</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02877458194099458</v>
+        <v>0.02936870416587561</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7</v>
@@ -6021,19 +6021,19 @@
         <v>7695</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2927</v>
+        <v>3598</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>15232</v>
+        <v>14663</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01008606321946742</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.003836385764194945</v>
+        <v>0.004716376325834219</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01996536916302126</v>
+        <v>0.01921941387200147</v>
       </c>
     </row>
     <row r="24">
@@ -6097,19 +6097,19 @@
         <v>47521</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>36295</v>
+        <v>34441</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>63295</v>
+        <v>62146</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1270676990138768</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09705095052099984</v>
+        <v>0.0920913449199084</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1692457298779928</v>
+        <v>0.1661737302560932</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>48</v>
@@ -6118,19 +6118,19 @@
         <v>50106</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>37628</v>
+        <v>36613</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>64488</v>
+        <v>64351</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1288235910445442</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09674194693262189</v>
+        <v>0.09413230859881451</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1657985318832047</v>
+        <v>0.1654485725905733</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>92</v>
@@ -6139,19 +6139,19 @@
         <v>97627</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>81465</v>
+        <v>79787</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>121688</v>
+        <v>118260</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1279628704834577</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1067792499962414</v>
+        <v>0.1045794569258695</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1595004617973473</v>
+        <v>0.1550067789650612</v>
       </c>
     </row>
     <row r="26">
@@ -6168,19 +6168,19 @@
         <v>319624</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>303587</v>
+        <v>303294</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>332284</v>
+        <v>332256</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8546517723838697</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8117678671036885</v>
+        <v>0.810984356368245</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8885014206975599</v>
+        <v>0.8884264921210668</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>317</v>
@@ -6189,19 +6189,19 @@
         <v>331194</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>315915</v>
+        <v>315555</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>344820</v>
+        <v>345036</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.85150460403225</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8122220768556609</v>
+        <v>0.8112973745761822</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8865392704955166</v>
+        <v>0.887094390992711</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>610</v>
@@ -6210,19 +6210,19 @@
         <v>650818</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>626189</v>
+        <v>627507</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>669639</v>
+        <v>669267</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8530473142115371</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8207651318655812</v>
+        <v>0.8224928932883373</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8777168350900486</v>
+        <v>0.8772289914025935</v>
       </c>
     </row>
     <row r="27">
@@ -6327,19 +6327,19 @@
         <v>2967</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>8007</v>
+        <v>7889</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01351099269024767</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.00438156037151594</v>
+        <v>0.004350138238090628</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03646119291662862</v>
+        <v>0.03592364885135652</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3</v>
@@ -6348,19 +6348,19 @@
         <v>2967</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>7975</v>
+        <v>7899</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.006864484834000837</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.002246912440079298</v>
+        <v>0.002235596007603503</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01845193929166512</v>
+        <v>0.01827671300555111</v>
       </c>
     </row>
     <row r="29">
@@ -6380,7 +6380,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5681</v>
+        <v>5894</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.008679609954116376</v>
@@ -6389,7 +6389,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02672002132312709</v>
+        <v>0.02772147315603238</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>0</v>
@@ -6414,7 +6414,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6048</v>
+        <v>6445</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.004269789575923101</v>
@@ -6423,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01399345382398205</v>
+        <v>0.01491188932982082</v>
       </c>
     </row>
     <row r="30">
@@ -6487,19 +6487,19 @@
         <v>29714</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>20728</v>
+        <v>20115</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>43078</v>
+        <v>42075</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1397530600100744</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.09749074612892514</v>
+        <v>0.09460508465586298</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2026092221160891</v>
+        <v>0.1978882558149302</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>38</v>
@@ -6508,19 +6508,19 @@
         <v>38652</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>28345</v>
+        <v>28485</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>50906</v>
+        <v>50068</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1760170713745822</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1290802442144576</v>
+        <v>0.1297178552896739</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2318232809421145</v>
+        <v>0.2280045460043087</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>64</v>
@@ -6529,19 +6529,19 @@
         <v>68366</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>54565</v>
+        <v>52619</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>85357</v>
+        <v>83092</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1581775948861372</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.126245729036987</v>
+        <v>0.1217440320763996</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1974893211939571</v>
+        <v>0.1922496757242905</v>
       </c>
     </row>
     <row r="32">
@@ -6558,19 +6558,19 @@
         <v>181059</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>167430</v>
+        <v>168704</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>190671</v>
+        <v>191122</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8515673300358092</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7874666767004479</v>
+        <v>0.7934609729622641</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8967750651068979</v>
+        <v>0.8989001074516917</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>171</v>
@@ -6579,19 +6579,19 @@
         <v>177972</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>166175</v>
+        <v>166101</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>188407</v>
+        <v>188378</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8104719359351701</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7567472891222413</v>
+        <v>0.7564126910950754</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.85798846144954</v>
+        <v>0.8578599775101474</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>339</v>
@@ -6600,19 +6600,19 @@
         <v>359031</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>341175</v>
+        <v>344108</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>373332</v>
+        <v>374475</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8306881307039389</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7893746958894</v>
+        <v>0.7961602957410534</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8637755264709899</v>
+        <v>0.8664206962455923</v>
       </c>
     </row>
     <row r="33">
@@ -6704,19 +6704,19 @@
         <v>6131</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1965</v>
+        <v>1987</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>15263</v>
+        <v>13804</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02237920616916084</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.007171892558426327</v>
+        <v>0.007253575408159445</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05570741512530746</v>
+        <v>0.050381995250987</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2</v>
@@ -6728,7 +6728,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>6558</v>
+        <v>6404</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.006555810967565994</v>
@@ -6737,7 +6737,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02342023104727961</v>
+        <v>0.02286912021803318</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>7</v>
@@ -6746,19 +6746,19 @@
         <v>7967</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2874</v>
+        <v>3143</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>17205</v>
+        <v>16573</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01438111021062509</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.005187648392716013</v>
+        <v>0.005673136762517397</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03105617049701512</v>
+        <v>0.02991374269746759</v>
       </c>
     </row>
     <row r="35">
@@ -6791,7 +6791,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>5111</v>
+        <v>4233</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.003525598394691735</v>
@@ -6800,7 +6800,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01825316762489424</v>
+        <v>0.01511511932980746</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1</v>
@@ -6812,7 +6812,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>5579</v>
+        <v>4936</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.001782049548327151</v>
@@ -6821,7 +6821,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01006981876690802</v>
+        <v>0.008909034996670812</v>
       </c>
     </row>
     <row r="36">
@@ -6885,19 +6885,19 @@
         <v>26222</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>15898</v>
+        <v>16924</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>39441</v>
+        <v>41268</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.09570571394012252</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.05802551621415018</v>
+        <v>0.06177238361091467</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1439567961255168</v>
+        <v>0.1506233011784138</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>21</v>
@@ -6906,19 +6906,19 @@
         <v>24976</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>16331</v>
+        <v>15793</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>37223</v>
+        <v>35651</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.08918956245148268</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.05831915915147003</v>
+        <v>0.05639651432107743</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1329258831354766</v>
+        <v>0.1273091388699705</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>43</v>
@@ -6927,19 +6927,19 @@
         <v>51197</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>38383</v>
+        <v>37547</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>68019</v>
+        <v>67513</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.0924120589297715</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.06928206318042937</v>
+        <v>0.06777207332256066</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1227753587652765</v>
+        <v>0.1218621137416433</v>
       </c>
     </row>
     <row r="38">
@@ -6956,19 +6956,19 @@
         <v>241628</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>228818</v>
+        <v>225360</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>253323</v>
+        <v>251685</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.8819150798907166</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8351590937744013</v>
+        <v>0.8225400495617552</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9245997743039651</v>
+        <v>0.9186213570979292</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>245</v>
@@ -6977,19 +6977,19 @@
         <v>252232</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>239269</v>
+        <v>240104</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>260641</v>
+        <v>261756</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9007290281862596</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8544366238060024</v>
+        <v>0.8574188687321636</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9307582712599011</v>
+        <v>0.9347377791082694</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>479</v>
@@ -6998,19 +6998,19 @@
         <v>493860</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>476028</v>
+        <v>476596</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>507958</v>
+        <v>509022</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.8914247813112762</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.8592381005598348</v>
+        <v>0.8602633185687044</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9168727094514758</v>
+        <v>0.9187922292285672</v>
       </c>
     </row>
     <row r="39">
@@ -7102,19 +7102,19 @@
         <v>16320</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>10269</v>
+        <v>9568</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>26353</v>
+        <v>26185</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.02465633729759896</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.01551400461210544</v>
+        <v>0.01445484753708047</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.03981419917671068</v>
+        <v>0.03956133370533</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>10</v>
@@ -7123,19 +7123,19 @@
         <v>10338</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>5095</v>
+        <v>5098</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>18316</v>
+        <v>18269</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01489895192448693</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.007342857820973839</v>
+        <v>0.007347386221191785</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.02639764039901514</v>
+        <v>0.02632969653585038</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>27</v>
@@ -7144,19 +7144,19 @@
         <v>26657</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>17796</v>
+        <v>17596</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>37138</v>
+        <v>37499</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01966262858651805</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.01312667352758834</v>
+        <v>0.01297916729702505</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02739284808408533</v>
+        <v>0.02765901547783162</v>
       </c>
     </row>
     <row r="41">
@@ -7267,19 +7267,19 @@
         <v>110783</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>91509</v>
+        <v>90090</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>132587</v>
+        <v>132291</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1673741093429361</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1382532805094193</v>
+        <v>0.1361102202565613</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2003161604617668</v>
+        <v>0.1998686033697432</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>95</v>
@@ -7288,19 +7288,19 @@
         <v>109595</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>90611</v>
+        <v>89188</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>131567</v>
+        <v>131698</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1579516144504347</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1305914970618754</v>
+        <v>0.1285406560289296</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1896172532765415</v>
+        <v>0.189806409099281</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>190</v>
@@ -7309,19 +7309,19 @@
         <v>220379</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>192010</v>
+        <v>194393</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>250869</v>
+        <v>251956</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1625517934226833</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.141627192437867</v>
+        <v>0.1433845654075949</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1850413018323025</v>
+        <v>0.1858429983454628</v>
       </c>
     </row>
     <row r="44">
@@ -7338,19 +7338,19 @@
         <v>534788</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>512874</v>
+        <v>513496</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>554497</v>
+        <v>556846</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.807969553359465</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.7748613816252027</v>
+        <v>0.7758017952497098</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.8377459445015856</v>
+        <v>0.8412956705781052</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>531</v>
@@ -7359,19 +7359,19 @@
         <v>573920</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>551470</v>
+        <v>552174</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>593029</v>
+        <v>595874</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.8271494336250783</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.7947942477751579</v>
+        <v>0.795809042117672</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.8546898776074651</v>
+        <v>0.8587902268644141</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1036</v>
@@ -7380,19 +7380,19 @@
         <v>1108708</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1074752</v>
+        <v>1075011</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1136448</v>
+        <v>1137026</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.8177855779907987</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.7927395613584657</v>
+        <v>0.7929305222358326</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.838246835779044</v>
+        <v>0.8386732085499528</v>
       </c>
     </row>
     <row r="45">
@@ -7484,19 +7484,19 @@
         <v>8354</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>4126</v>
+        <v>4060</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>15828</v>
+        <v>15699</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01072214642179402</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.005295406898374815</v>
+        <v>0.005211011078554689</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.02031527342758212</v>
+        <v>0.02015005686342157</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>8</v>
@@ -7505,19 +7505,19 @@
         <v>9191</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>4103</v>
+        <v>4138</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>18129</v>
+        <v>17734</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.011156235929523</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.004980496752184174</v>
+        <v>0.00502244174097144</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.02200511683580374</v>
+        <v>0.02152621568043324</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>16</v>
@@ -7526,19 +7526,19 @@
         <v>17545</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>9380</v>
+        <v>11189</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>27827</v>
+        <v>29956</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.01094525111018896</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.005851429306091686</v>
+        <v>0.006980540892657243</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01735955192547293</v>
+        <v>0.01868786498281071</v>
       </c>
     </row>
     <row r="47">
@@ -7558,7 +7558,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>7242</v>
+        <v>7210</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.00264399445683108</v>
@@ -7567,7 +7567,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.009295727505254684</v>
+        <v>0.009254864392204432</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>1</v>
@@ -7579,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>5648</v>
+        <v>6497</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.001366059974816919</v>
@@ -7588,7 +7588,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.006855518343083598</v>
+        <v>0.007886051580485175</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>3</v>
@@ -7597,19 +7597,19 @@
         <v>3185</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>8548</v>
+        <v>8969</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.001987187117970172</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.0006402245730811834</v>
+        <v>0.0006390745087734357</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.005332417779582926</v>
+        <v>0.005595067333184373</v>
       </c>
     </row>
     <row r="48">
@@ -7673,19 +7673,19 @@
         <v>63340</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>46662</v>
+        <v>47748</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>82444</v>
+        <v>81774</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.0812990488613185</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.05989283460981642</v>
+        <v>0.06128632699050265</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1058200709481448</v>
+        <v>0.1049592513949742</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>61</v>
@@ -7694,19 +7694,19 @@
         <v>66750</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>51680</v>
+        <v>53049</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>84231</v>
+        <v>84862</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.08102214725243877</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.06273020070610011</v>
+        <v>0.06439172354730285</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1022398165424664</v>
+        <v>0.1030057727834515</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>115</v>
@@ -7715,19 +7715,19 @@
         <v>130090</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>108370</v>
+        <v>106887</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>153924</v>
+        <v>154926</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.08115673248171197</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.06760645730145119</v>
+        <v>0.06668135332938312</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.09602562615285155</v>
+        <v>0.09665022888184061</v>
       </c>
     </row>
     <row r="50">
@@ -7744,19 +7744,19 @@
         <v>705345</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>685936</v>
+        <v>686095</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>722396</v>
+        <v>722140</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.9053348102600564</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.8804227913965188</v>
+        <v>0.8806272688546423</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.9272211575488308</v>
+        <v>0.9268925139000807</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>687</v>
@@ -7765,19 +7765,19 @@
         <v>746786</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>727918</v>
+        <v>728006</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>763413</v>
+        <v>763441</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.9064555568432213</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.8835531744824767</v>
+        <v>0.8836601330463676</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.9266368982453596</v>
+        <v>0.9266707791930838</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>1340</v>
@@ -7786,19 +7786,19 @@
         <v>1452131</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>1427836</v>
+        <v>1426208</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>1475420</v>
+        <v>1476592</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.9059108292901289</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.89075457311652</v>
+        <v>0.8897388281301132</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.9204397920055181</v>
+        <v>0.9211707247847117</v>
       </c>
     </row>
     <row r="51">
@@ -7890,19 +7890,19 @@
         <v>44026</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>32090</v>
+        <v>33137</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>59615</v>
+        <v>60080</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.0128617880396444</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.009374672055121805</v>
+        <v>0.009680580971180266</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.01741603878407028</v>
+        <v>0.01755171850516599</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>38</v>
@@ -7911,19 +7911,19 @@
         <v>41493</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>29386</v>
+        <v>29998</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>56217</v>
+        <v>56324</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.01167549000389507</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.008268752204790087</v>
+        <v>0.008441003563024017</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.01581833823556664</v>
+        <v>0.01584852631047856</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>80</v>
@@ -7932,19 +7932,19 @@
         <v>85519</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>68124</v>
+        <v>68037</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>107283</v>
+        <v>105452</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.01225751274074197</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.00976426286966057</v>
+        <v>0.009751717362184187</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.01537694959023369</v>
+        <v>0.01511447849898514</v>
       </c>
     </row>
     <row r="53">
@@ -7961,19 +7961,19 @@
         <v>7791</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>3786</v>
+        <v>3047</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>14516</v>
+        <v>14645</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.002275958772842179</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.001106014416434437</v>
+        <v>0.0008902044743738053</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.004240776418170404</v>
+        <v>0.00427844762393813</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>6</v>
@@ -7982,19 +7982,19 @@
         <v>6957</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>2990</v>
+        <v>2988</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>14965</v>
+        <v>14985</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.001957478398995723</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.0008413706059723663</v>
+        <v>0.000840727528529156</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.004210873925268342</v>
+        <v>0.004216456547318463</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>14</v>
@@ -8003,19 +8003,19 @@
         <v>14747</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>7992</v>
+        <v>8208</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>24367</v>
+        <v>25063</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.002113731560707361</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.001145498330931826</v>
+        <v>0.001176409365430311</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.003492580853559819</v>
+        <v>0.003592326522686945</v>
       </c>
     </row>
     <row r="54">
@@ -8079,19 +8079,19 @@
         <v>450138</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>412045</v>
+        <v>408141</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>497243</v>
+        <v>493200</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.1315032406959005</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1203749378174663</v>
+        <v>0.1192342452641286</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.1452647166217631</v>
+        <v>0.1440835530283842</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>396</v>
@@ -8100,19 +8100,19 @@
         <v>441804</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>400065</v>
+        <v>402281</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>486153</v>
+        <v>484234</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.1243155516420017</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.1125709548638738</v>
+        <v>0.1131945933497691</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.1367948149263638</v>
+        <v>0.1362546600499384</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>793</v>
@@ -8121,19 +8121,19 @@
         <v>891941</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>836436</v>
+        <v>834789</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>950672</v>
+        <v>950899</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.1278419828832978</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.1198864743764589</v>
+        <v>0.1196503773589358</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.1362598684140179</v>
+        <v>0.1362924143833327</v>
       </c>
     </row>
     <row r="56">
@@ -8150,19 +8150,19 @@
         <v>2921061</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>2872315</v>
+        <v>2877378</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>2963663</v>
+        <v>2966011</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.8533590124916129</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.8391185419390145</v>
+        <v>0.840597549364597</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.8658047980254168</v>
+        <v>0.8664909246514162</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>2854</v>
@@ -8171,19 +8171,19 @@
         <v>3063634</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>3019375</v>
+        <v>3021903</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>3107512</v>
+        <v>3101497</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.8620514799551074</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.8495975414841861</v>
+        <v>0.8503089349705897</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.8743978337141851</v>
+        <v>0.8727054336909696</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>5612</v>
@@ -8192,19 +8192,19 @@
         <v>5984695</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>5923718</v>
+        <v>5917269</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>6037631</v>
+        <v>6044571</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.8577867728152528</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.8490468692587608</v>
+        <v>0.8481226123652834</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.8653740217207972</v>
+        <v>0.8663688304303628</v>
       </c>
     </row>
     <row r="57">
@@ -8590,7 +8590,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8046</v>
+        <v>7125</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.004938927382026248</v>
@@ -8599,7 +8599,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02756607212844069</v>
+        <v>0.02441255959309946</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -8624,7 +8624,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7179</v>
+        <v>8195</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.002482915515570563</v>
@@ -8633,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01236619368111736</v>
+        <v>0.01411547139475358</v>
       </c>
     </row>
     <row r="6">
@@ -8653,7 +8653,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5078</v>
+        <v>5066</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0033982874255023</v>
@@ -8662,7 +8662,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01739697391779669</v>
+        <v>0.01735688910377792</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -8671,19 +8671,19 @@
         <v>3222</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>911</v>
+        <v>918</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9137</v>
+        <v>9011</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01116105366169721</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.003155957155809715</v>
+        <v>0.003180543129231041</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03164718285154567</v>
+        <v>0.03121332999958721</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -8692,19 +8692,19 @@
         <v>4214</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1067</v>
+        <v>1072</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>10292</v>
+        <v>9670</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.007258527618949816</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.001838198929074876</v>
+        <v>0.001847257093797615</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01772740349121345</v>
+        <v>0.01665553182271297</v>
       </c>
     </row>
     <row r="7">
@@ -8721,19 +8721,19 @@
         <v>85350</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>68932</v>
+        <v>68263</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>101522</v>
+        <v>101655</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2924280833432559</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2361784190691223</v>
+        <v>0.233884186453994</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3478364540019573</v>
+        <v>0.3482925835349237</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>65</v>
@@ -8742,19 +8742,19 @@
         <v>67462</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>54924</v>
+        <v>53804</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>86440</v>
+        <v>83831</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2336710051597549</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1902441795191998</v>
+        <v>0.1863637856400995</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2994072604412693</v>
+        <v>0.2903718294485297</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>134</v>
@@ -8763,19 +8763,19 @@
         <v>152811</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>131555</v>
+        <v>133085</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>176516</v>
+        <v>175064</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2632095769561993</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2265958358491016</v>
+        <v>0.229232115830038</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3040390623871688</v>
+        <v>0.3015388365475407</v>
       </c>
     </row>
     <row r="8">
@@ -8792,19 +8792,19 @@
         <v>204083</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>187790</v>
+        <v>187857</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>220957</v>
+        <v>221185</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6992347018492155</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6434113277602739</v>
+        <v>0.6436407427636757</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7570507222360265</v>
+        <v>0.7578305269159176</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>209</v>
@@ -8813,19 +8813,19 @@
         <v>218019</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>199814</v>
+        <v>202243</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>231104</v>
+        <v>232561</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7551679411785479</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6921077727203837</v>
+        <v>0.7005238307291221</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8004887897608138</v>
+        <v>0.8055377500848195</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>402</v>
@@ -8834,19 +8834,19 @@
         <v>422102</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>398068</v>
+        <v>398801</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>444217</v>
+        <v>442121</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7270489799092804</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6856508319300837</v>
+        <v>0.6869137793369798</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7651400200438812</v>
+        <v>0.7615300863839676</v>
       </c>
     </row>
     <row r="9">
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6613</v>
+        <v>6672</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004275150122534485</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01315749240599788</v>
+        <v>0.01327507411726182</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -8975,7 +8975,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7525</v>
+        <v>5651</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002094833040128272</v>
@@ -8984,7 +8984,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.007336351225985449</v>
+        <v>0.005509824248545003</v>
       </c>
     </row>
     <row r="11">
@@ -9004,7 +9004,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6523</v>
+        <v>5092</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.002022550274929921</v>
@@ -9013,7 +9013,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01297944588102239</v>
+        <v>0.01013195126283443</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -9025,7 +9025,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7893</v>
+        <v>7479</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.004304459175203637</v>
@@ -9034,7 +9034,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01508903504490797</v>
+        <v>0.0142983203057694</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>3</v>
@@ -9043,19 +9043,19 @@
         <v>3268</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>9896</v>
+        <v>8844</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.003186318753968033</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0009923527809751226</v>
+        <v>0.0009879180341401668</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.009648710910069807</v>
+        <v>0.008622672725819187</v>
       </c>
     </row>
     <row r="12">
@@ -9119,19 +9119,19 @@
         <v>77506</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>62889</v>
+        <v>61773</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>96579</v>
+        <v>96364</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1542173707972323</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.125133577765092</v>
+        <v>0.1229135112842764</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1921693162477326</v>
+        <v>0.1917397613995544</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>66</v>
@@ -9140,19 +9140,19 @@
         <v>68158</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>52482</v>
+        <v>54125</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>83627</v>
+        <v>84225</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1303006496869583</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1003317244457774</v>
+        <v>0.1034728872846386</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1598722580550219</v>
+        <v>0.1610170416723037</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>137</v>
@@ -9161,19 +9161,19 @@
         <v>145664</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>126866</v>
+        <v>125308</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>169724</v>
+        <v>168909</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1420198960659914</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1236921762430174</v>
+        <v>0.1221734678827625</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1654775515998081</v>
+        <v>0.1646837339674268</v>
       </c>
     </row>
     <row r="14">
@@ -9190,19 +9190,19 @@
         <v>421904</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>402952</v>
+        <v>402759</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>437161</v>
+        <v>437431</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8394849288053032</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8017755756653229</v>
+        <v>0.8013905636070379</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8698431728186049</v>
+        <v>0.8703799488770719</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>416</v>
@@ -9211,19 +9211,19 @@
         <v>452674</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>436968</v>
+        <v>436085</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>468385</v>
+        <v>467276</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8653948911378381</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8353680904804126</v>
+        <v>0.833680078243855</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8954300266688214</v>
+        <v>0.893309744583526</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>817</v>
@@ -9232,19 +9232,19 @@
         <v>874578</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>851513</v>
+        <v>851018</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>894404</v>
+        <v>895122</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8526989521399123</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8302105499228956</v>
+        <v>0.829728247606371</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8720289446451898</v>
+        <v>0.8727284193476182</v>
       </c>
     </row>
     <row r="15">
@@ -9336,19 +9336,19 @@
         <v>2838</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8464</v>
+        <v>8459</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.008930552201275982</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002923926213819101</v>
+        <v>0.002921051007329299</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02662913540524188</v>
+        <v>0.02661623730092716</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -9360,7 +9360,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4585</v>
+        <v>4477</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.002717035573024527</v>
@@ -9369,7 +9369,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01381770627642465</v>
+        <v>0.01349239093396698</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -9378,19 +9378,19 @@
         <v>3740</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>936</v>
+        <v>926</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9236</v>
+        <v>9301</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.005756861292426134</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00144147796673631</v>
+        <v>0.001424624300095259</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01421662875355351</v>
+        <v>0.0143165848221099</v>
       </c>
     </row>
     <row r="17">
@@ -9423,7 +9423,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7909</v>
+        <v>7835</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.006634047687383066</v>
@@ -9432,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02383448240885857</v>
+        <v>0.02361162505521895</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2</v>
@@ -9444,7 +9444,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7963</v>
+        <v>8536</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.003388486439159802</v>
@@ -9453,7 +9453,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.012258003343511</v>
+        <v>0.01313893875440224</v>
       </c>
     </row>
     <row r="18">
@@ -9473,7 +9473,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5992</v>
+        <v>5526</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.003134467136219905</v>
@@ -9482,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01885319258927646</v>
+        <v>0.01738742036632047</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>0</v>
@@ -9507,7 +9507,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>6320</v>
+        <v>4998</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.001533468788669148</v>
@@ -9516,7 +9516,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.00972803460256624</v>
+        <v>0.007693910839906731</v>
       </c>
     </row>
     <row r="19">
@@ -9533,19 +9533,19 @@
         <v>24403</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>15985</v>
+        <v>16117</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>35273</v>
+        <v>35750</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07678048830657416</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05029525669882349</v>
+        <v>0.05071109173181421</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1109819899733435</v>
+        <v>0.1124830473622632</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>33</v>
@@ -9554,19 +9554,19 @@
         <v>31964</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>23546</v>
+        <v>22830</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>46009</v>
+        <v>44259</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09632746670974043</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07096029264267882</v>
+        <v>0.06879999147076439</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1386541915704697</v>
+        <v>0.1333806952004272</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>58</v>
@@ -9575,19 +9575,19 @@
         <v>56367</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>44693</v>
+        <v>43552</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>72621</v>
+        <v>72806</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08676453942692509</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06879574877490031</v>
+        <v>0.06703859671646327</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1117846074969217</v>
+        <v>0.112068232989265</v>
       </c>
     </row>
     <row r="20">
@@ -9604,19 +9604,19 @@
         <v>289591</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>278359</v>
+        <v>278030</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>297945</v>
+        <v>297970</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9111544923559299</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8758132329959671</v>
+        <v>0.8747785503620931</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.937438349863528</v>
+        <v>0.9375162579799611</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>292</v>
@@ -9625,19 +9625,19 @@
         <v>296758</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>283239</v>
+        <v>284082</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>305888</v>
+        <v>306490</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.894321450029852</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8535807453978428</v>
+        <v>0.8561195844250691</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9218350746288362</v>
+        <v>0.9236506266014263</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>597</v>
@@ -9646,19 +9646,19 @@
         <v>586350</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>570274</v>
+        <v>569186</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>599804</v>
+        <v>599857</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9025566440528198</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8778115280491418</v>
+        <v>0.8761368638934542</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9232666846654891</v>
+        <v>0.9233484121910294</v>
       </c>
     </row>
     <row r="21">
@@ -9762,7 +9762,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01301848446860336</v>
+        <v>0.01301598692317837</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -9771,19 +9771,19 @@
         <v>3672</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>10961</v>
+        <v>11687</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.009480346417183061</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.002366244612383642</v>
+        <v>0.002373066306106379</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02830215347591977</v>
+        <v>0.03017783861986063</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4</v>
@@ -9792,19 +9792,19 @@
         <v>4627</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>951</v>
+        <v>1815</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>11948</v>
+        <v>12284</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.006116477843635479</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.001257019589699567</v>
+        <v>0.002399724449373123</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01579364523352948</v>
+        <v>0.01623885364631758</v>
       </c>
     </row>
     <row r="23">
@@ -9821,19 +9821,19 @@
         <v>6731</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2848</v>
+        <v>2889</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>12552</v>
+        <v>12696</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01823030521879198</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.007714208322051549</v>
+        <v>0.00782453969514765</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03399726144772764</v>
+        <v>0.03438826126785055</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>10</v>
@@ -9842,19 +9842,19 @@
         <v>9422</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>4962</v>
+        <v>4599</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>16970</v>
+        <v>17229</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02432750491641204</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01281246612279338</v>
+        <v>0.01187508866893803</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04381745815971433</v>
+        <v>0.04448591315455813</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>17</v>
@@ -9863,19 +9863,19 @@
         <v>16152</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>8583</v>
+        <v>9518</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>24870</v>
+        <v>24737</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02135177904719628</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01134600624429928</v>
+        <v>0.0125824825218139</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0328751707170218</v>
+        <v>0.03269949283741773</v>
       </c>
     </row>
     <row r="24">
@@ -9908,7 +9908,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>9430</v>
+        <v>10696</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.006669019226313638</v>
@@ -9917,7 +9917,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02435037741367492</v>
+        <v>0.027618028914672</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2</v>
@@ -9929,7 +9929,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>9170</v>
+        <v>8977</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.003414218003092267</v>
@@ -9938,7 +9938,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01212142658300853</v>
+        <v>0.01186618332073888</v>
       </c>
     </row>
     <row r="25">
@@ -9955,19 +9955,19 @@
         <v>81032</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>66283</v>
+        <v>63989</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>100553</v>
+        <v>98094</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2194808626318633</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1795303305895893</v>
+        <v>0.1733184158267392</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2723536877227988</v>
+        <v>0.265692531187386</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>62</v>
@@ -9976,19 +9976,19 @@
         <v>68766</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>55849</v>
+        <v>53805</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>88471</v>
+        <v>86310</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1775609633047856</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1442071739918553</v>
+        <v>0.138928883050208</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2284408342463602</v>
+        <v>0.2228615051422628</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>133</v>
@@ -9997,19 +9997,19 @@
         <v>149799</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>125607</v>
+        <v>126464</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>172254</v>
+        <v>171496</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1980198846209427</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1660409179724931</v>
+        <v>0.1671740702609207</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2277031321411991</v>
+        <v>0.2267018852204916</v>
       </c>
     </row>
     <row r="26">
@@ -10026,19 +10026,19 @@
         <v>280482</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>261253</v>
+        <v>262564</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>295922</v>
+        <v>298142</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7597009816645485</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7076201657017088</v>
+        <v>0.7111688502858741</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8015229924160635</v>
+        <v>0.8075351358232733</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>281</v>
@@ -10047,19 +10047,19 @@
         <v>302841</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>282639</v>
+        <v>283753</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>317098</v>
+        <v>319384</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7819621661353057</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.72979879751379</v>
+        <v>0.7326758004020321</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8187758490951595</v>
+        <v>0.8246774372259964</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>555</v>
@@ -10068,19 +10068,19 @@
         <v>583322</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>558377</v>
+        <v>558505</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>608437</v>
+        <v>606272</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7710976404851333</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7381228480451336</v>
+        <v>0.7382917258057924</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8042976446924135</v>
+        <v>0.8014348809829016</v>
       </c>
     </row>
     <row r="27">
@@ -10282,7 +10282,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>4307</v>
+        <v>4287</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.003874818815525252</v>
@@ -10291,7 +10291,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01979292705527995</v>
+        <v>0.0197027524200494</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1</v>
@@ -10303,7 +10303,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>4291</v>
+        <v>4876</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.001969928758154633</v>
@@ -10312,7 +10312,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01002473040974067</v>
+        <v>0.01139130850534266</v>
       </c>
     </row>
     <row r="31">
@@ -10329,19 +10329,19 @@
         <v>30599</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>21127</v>
+        <v>21503</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>42403</v>
+        <v>42622</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1454152130914087</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1004017180578983</v>
+        <v>0.1021888455251665</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2015128939761347</v>
+        <v>0.2025546833323184</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>23</v>
@@ -10350,19 +10350,19 @@
         <v>23366</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>14956</v>
+        <v>15537</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>33169</v>
+        <v>33755</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1073755823898331</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.06873007399141762</v>
+        <v>0.07139977114718159</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1524264090370179</v>
+        <v>0.1551185751999871</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>51</v>
@@ -10371,19 +10371,19 @@
         <v>53964</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>41615</v>
+        <v>40377</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>70475</v>
+        <v>67873</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1260761507929673</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0972257511302881</v>
+        <v>0.0943318445885005</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1646515501870773</v>
+        <v>0.1585704792338115</v>
       </c>
     </row>
     <row r="32">
@@ -10400,19 +10400,19 @@
         <v>179823</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>168019</v>
+        <v>167800</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>189295</v>
+        <v>188919</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8545847869085913</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7984871060238653</v>
+        <v>0.7974453166676816</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8995982819421017</v>
+        <v>0.8978111544748334</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>198</v>
@@ -10421,19 +10421,19 @@
         <v>193397</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>183405</v>
+        <v>183764</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>201949</v>
+        <v>201465</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8887495987946417</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8428297473013305</v>
+        <v>0.8444811608920441</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9280493271061763</v>
+        <v>0.9258228706577613</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>381</v>
@@ -10442,19 +10442,19 @@
         <v>373221</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>356415</v>
+        <v>358699</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>386073</v>
+        <v>386337</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.871953920448878</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8326902795525979</v>
+        <v>0.8380279558178387</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9019813397904451</v>
+        <v>0.9025981547665025</v>
       </c>
     </row>
     <row r="33">
@@ -10562,7 +10562,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>4928</v>
+        <v>4452</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.003259111082047468</v>
@@ -10571,7 +10571,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01804428195392863</v>
+        <v>0.0163023116410988</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>5367</v>
+        <v>3587</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.001662930021378966</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01002679949060298</v>
+        <v>0.006700873501349208</v>
       </c>
     </row>
     <row r="35">
@@ -10612,7 +10612,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>4768</v>
+        <v>5453</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.003702665284459039</v>
@@ -10621,7 +10621,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.01818779592532351</v>
+        <v>0.0208001760358238</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>4</v>
@@ -10630,19 +10630,19 @@
         <v>4993</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1421</v>
+        <v>1446</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>12526</v>
+        <v>11491</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01828258669847356</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.005202683880239629</v>
+        <v>0.005295317479107061</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.04586397455329516</v>
+        <v>0.04207270824239093</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>5</v>
@@ -10651,19 +10651,19 @@
         <v>5964</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1977</v>
+        <v>1960</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>13047</v>
+        <v>13806</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01114192967844194</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.00369321011322118</v>
+        <v>0.003662419185054465</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02437450597142241</v>
+        <v>0.02579299058958383</v>
       </c>
     </row>
     <row r="36">
@@ -10727,19 +10727,19 @@
         <v>24152</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>15889</v>
+        <v>15049</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>35504</v>
+        <v>34928</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.09213085987970258</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.06060802894337439</v>
+        <v>0.05740410507597841</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.135431035052942</v>
+        <v>0.1332346179922178</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>15</v>
@@ -10748,19 +10748,19 @@
         <v>14996</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>8159</v>
+        <v>8797</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>22568</v>
+        <v>23504</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.0549081795702692</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.02987314050816164</v>
+        <v>0.03221029971753691</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.08263043859935103</v>
+        <v>0.08605856396448404</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>38</v>
@@ -10769,19 +10769,19 @@
         <v>39149</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>27750</v>
+        <v>27753</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>52423</v>
+        <v>51661</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.07313834596886591</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.05184398007509676</v>
+        <v>0.05184803669645655</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.09793817103280188</v>
+        <v>0.09651487883022389</v>
       </c>
     </row>
     <row r="38">
@@ -10798,19 +10798,19 @@
         <v>237029</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>225547</v>
+        <v>225808</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>245343</v>
+        <v>246355</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9041664748358383</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8603666614000477</v>
+        <v>0.8613619163101801</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9358820908334485</v>
+        <v>0.9397409567844301</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>243</v>
@@ -10819,19 +10819,19 @@
         <v>252235</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>243002</v>
+        <v>242815</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>259777</v>
+        <v>259981</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9235501226492098</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8897418312190916</v>
+        <v>0.8890561646453786</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9511642165311457</v>
+        <v>0.9519103647937303</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>477</v>
@@ -10840,19 +10840,19 @@
         <v>489264</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>474785</v>
+        <v>474672</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>501004</v>
+        <v>500623</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9140567943313131</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.8870056804704325</v>
+        <v>0.8867939310693354</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9359888440579852</v>
+        <v>0.935276430874317</v>
       </c>
     </row>
     <row r="39">
@@ -10944,19 +10944,19 @@
         <v>4728</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>12255</v>
+        <v>12445</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.007200765558111764</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.001661858983962953</v>
+        <v>0.001660068723360678</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01866552824392994</v>
+        <v>0.01895466108856759</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>6</v>
@@ -10965,19 +10965,19 @@
         <v>6137</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>2449</v>
+        <v>2391</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>12511</v>
+        <v>13161</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.008916537275136653</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.003558400509012076</v>
+        <v>0.003474588459061978</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.0181789465414374</v>
+        <v>0.0191226853383706</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>10</v>
@@ -10986,19 +10986,19 @@
         <v>10864</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>5712</v>
+        <v>5055</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>19581</v>
+        <v>20451</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.008078861665751899</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.004247753098239795</v>
+        <v>0.003758937279060365</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01456060284824046</v>
+        <v>0.01520782176961295</v>
       </c>
     </row>
     <row r="41">
@@ -11018,7 +11018,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>10112</v>
+        <v>10973</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.004600148678546676</v>
@@ -11027,7 +11027,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01540216812511192</v>
+        <v>0.01671294027746786</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>6</v>
@@ -11036,19 +11036,19 @@
         <v>6473</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>2372</v>
+        <v>2914</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>12703</v>
+        <v>13973</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.009405856562096691</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.003447141396531869</v>
+        <v>0.004234307091709015</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01845690430322293</v>
+        <v>0.02030193851267222</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>8</v>
@@ -11057,19 +11057,19 @@
         <v>9494</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>4248</v>
+        <v>4414</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>17935</v>
+        <v>18721</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.00705960954104297</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.00315851608355459</v>
+        <v>0.003282474003584545</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01333627580746398</v>
+        <v>0.01392095576697691</v>
       </c>
     </row>
     <row r="42">
@@ -11133,19 +11133,19 @@
         <v>96317</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>78231</v>
+        <v>79407</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>116135</v>
+        <v>118765</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1466992828941296</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.119152808018483</v>
+        <v>0.1209447744370338</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1768852063168081</v>
+        <v>0.1808909148610965</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>114</v>
@@ -11154,19 +11154,19 @@
         <v>118049</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>101029</v>
+        <v>98491</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>139071</v>
+        <v>138806</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1715234588257804</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1467932598586758</v>
+        <v>0.1431053200370838</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2020674549204609</v>
+        <v>0.2016831308722146</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>197</v>
@@ -11175,19 +11175,19 @@
         <v>214366</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>186150</v>
+        <v>188522</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>242490</v>
+        <v>244708</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1594037773467796</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1384226560449534</v>
+        <v>0.1401861315015899</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1803168229111579</v>
+        <v>0.1819662335207538</v>
       </c>
     </row>
     <row r="44">
@@ -11204,19 +11204,19 @@
         <v>552493</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>531975</v>
+        <v>530325</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>573400</v>
+        <v>569999</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.841499802869212</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.810248136727109</v>
+        <v>0.8077358378911902</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.8733429526666796</v>
+        <v>0.8681620759458223</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>517</v>
@@ -11225,19 +11225,19 @@
         <v>557580</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>536044</v>
+        <v>536789</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>575899</v>
+        <v>577543</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.8101541473369863</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.7788633918592333</v>
+        <v>0.7799449858680532</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.8367723509102449</v>
+        <v>0.8391599201495329</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1008</v>
@@ -11246,19 +11246,19 @@
         <v>1110073</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1079409</v>
+        <v>1079829</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1137227</v>
+        <v>1137932</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.8254577514464255</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.8026554684518555</v>
+        <v>0.8029679951895881</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.8456494891899817</v>
+        <v>0.8461735048769213</v>
       </c>
     </row>
     <row r="45">
@@ -11353,7 +11353,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>7624</v>
+        <v>7357</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.002769488502935865</v>
@@ -11362,7 +11362,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.009804669533625661</v>
+        <v>0.009460546102102107</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>2</v>
@@ -11374,7 +11374,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>6821</v>
+        <v>7314</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.002374840422879046</v>
@@ -11383,7 +11383,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.008275116040709849</v>
+        <v>0.008873375219919793</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>4</v>
@@ -11392,19 +11392,19 @@
         <v>4111</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1133</v>
+        <v>1019</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>10246</v>
+        <v>10363</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.00256642142044274</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.0007074407290298358</v>
+        <v>0.000636077457512815</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.006396165391030871</v>
+        <v>0.006469478228200677</v>
       </c>
     </row>
     <row r="47">
@@ -11421,19 +11421,19 @@
         <v>4140</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1077</v>
+        <v>1084</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>10770</v>
+        <v>11499</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.005323813230816372</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.00138492435059565</v>
+        <v>0.001393480600073019</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.01385021326943027</v>
+        <v>0.01478778030442151</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>5</v>
@@ -11442,19 +11442,19 @@
         <v>4953</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1913</v>
+        <v>1926</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>11667</v>
+        <v>11621</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.006008752410989577</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.002320549619173999</v>
+        <v>0.002337044762115943</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.01415537096900809</v>
+        <v>0.01409943366765506</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>9</v>
@@ -11463,19 +11463,19 @@
         <v>9092</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>4720</v>
+        <v>4216</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>16646</v>
+        <v>16654</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.00567625027037572</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.002946367442697327</v>
+        <v>0.002632173982018763</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.01039175268205869</v>
+        <v>0.01039702098071679</v>
       </c>
     </row>
     <row r="48">
@@ -11508,7 +11508,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>4916</v>
+        <v>4928</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.001190238884251803</v>
@@ -11517,7 +11517,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.00596432064149665</v>
+        <v>0.005978531676944883</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>1</v>
@@ -11529,7 +11529,7 @@
         <v>0</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>4927</v>
+        <v>4915</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.0006124401711522028</v>
@@ -11538,7 +11538,7 @@
         <v>0</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.003075901403842297</v>
+        <v>0.003068393772105206</v>
       </c>
     </row>
     <row r="49">
@@ -11555,19 +11555,19 @@
         <v>108363</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>90142</v>
+        <v>88552</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>129757</v>
+        <v>129946</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1393559321619383</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1159226360509597</v>
+        <v>0.1138785964480792</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1668679807193243</v>
+        <v>0.1671109587135533</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>84</v>
@@ -11576,19 +11576,19 @@
         <v>91177</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>72772</v>
+        <v>73908</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>111144</v>
+        <v>110791</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.1106221593291583</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.08829218769082676</v>
+        <v>0.08966979823636749</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.13484772726519</v>
+        <v>0.1344190724313041</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>181</v>
@@ -11597,19 +11597,19 @@
         <v>199541</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>171979</v>
+        <v>172768</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>228664</v>
+        <v>228469</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.1245709028838717</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.1073642700647585</v>
+        <v>0.1078568005028102</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.1427525679031864</v>
+        <v>0.1426305615819837</v>
       </c>
     </row>
     <row r="50">
@@ -11626,19 +11626,19 @@
         <v>662944</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>642538</v>
+        <v>640854</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>682073</v>
+        <v>683519</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.8525507661043095</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.8263086677232492</v>
+        <v>0.8241429729091517</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.8771508173973547</v>
+        <v>0.8790104042034399</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>661</v>
@@ -11647,19 +11647,19 @@
         <v>725154</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>705284</v>
+        <v>704709</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>744543</v>
+        <v>742050</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.8798040089527213</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.8556961327306676</v>
+        <v>0.8549989287098507</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.9033278723664849</v>
+        <v>0.9003037828298447</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>1307</v>
@@ -11668,19 +11668,19 @@
         <v>1388098</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>1357191</v>
+        <v>1358323</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>1415463</v>
+        <v>1415874</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.8665739852541577</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.8472787696319746</v>
+        <v>0.8479859455591983</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.8836574942785818</v>
+        <v>0.8839144077105584</v>
       </c>
     </row>
     <row r="51">
@@ -11772,19 +11772,19 @@
         <v>12824</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>6779</v>
+        <v>7021</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>22728</v>
+        <v>22156</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.003784804125458554</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.002000668513802901</v>
+        <v>0.002072236145588021</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.006707948983515523</v>
+        <v>0.006539133546622264</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>13</v>
@@ -11793,19 +11793,19 @@
         <v>13557</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>7553</v>
+        <v>7488</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>23992</v>
+        <v>23130</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.003836184758133722</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.002137155696435607</v>
+        <v>0.002118864799190606</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.006788688251220558</v>
+        <v>0.006544853292700153</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>25</v>
@@ -11814,19 +11814,19 @@
         <v>26381</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>18164</v>
+        <v>17839</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>40340</v>
+        <v>39484</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.00381103581671935</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.002623980581811233</v>
+        <v>0.002577006742895844</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.005827491663543688</v>
+        <v>0.005703886656649338</v>
       </c>
     </row>
     <row r="53">
@@ -11843,19 +11843,19 @@
         <v>17319</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>10267</v>
+        <v>10629</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>27597</v>
+        <v>28271</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.005111660418762669</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.003030291515838811</v>
+        <v>0.003137114125776511</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.008144981595694874</v>
+        <v>0.008344051879040304</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>29</v>
@@ -11864,19 +11864,19 @@
         <v>30294</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>21629</v>
+        <v>20757</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>42351</v>
+        <v>43815</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.008571922526267064</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.006120239871603449</v>
+        <v>0.005873416317727748</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.01198361952474328</v>
+        <v>0.01239771870010622</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>45</v>
@@ -11885,19 +11885,19 @@
         <v>47613</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>35378</v>
+        <v>35977</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>64230</v>
+        <v>63878</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.006878250718639518</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.005110801080042662</v>
+        <v>0.00519724774172806</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.009278750065487937</v>
+        <v>0.009227841916526895</v>
       </c>
     </row>
     <row r="54">
@@ -11917,7 +11917,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>5983</v>
+        <v>6951</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.0005867615708627396</v>
@@ -11926,7 +11926,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.001765841262978612</v>
+        <v>0.002051421277091299</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>7</v>
@@ -11935,19 +11935,19 @@
         <v>7629</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>3002</v>
+        <v>2896</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>15558</v>
+        <v>15023</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.002158762363611028</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.0008495618510466421</v>
+        <v>0.0008194850530279105</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.00440223996552753</v>
+        <v>0.004250906967861523</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>9</v>
@@ -11956,19 +11956,19 @@
         <v>9617</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>4284</v>
+        <v>4839</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>17391</v>
+        <v>17796</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.001389325441918948</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.0006188004930581148</v>
+        <v>0.0006990712933351889</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.002512362778540654</v>
+        <v>0.002570797069076899</v>
       </c>
     </row>
     <row r="55">
@@ -11985,19 +11985,19 @@
         <v>527722</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>481155</v>
+        <v>486043</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>573531</v>
+        <v>576290</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.1557526686850779</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1420089320243199</v>
+        <v>0.1434515190227468</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.1692727978116866</v>
+        <v>0.1700871206464859</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>462</v>
@@ -12006,19 +12006,19 @@
         <v>483938</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>445538</v>
+        <v>448300</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>531304</v>
+        <v>530631</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.1369347807390182</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.1260690686370904</v>
+        <v>0.126850558401667</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.1503373154570137</v>
+        <v>0.150146805436835</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>929</v>
@@ -12027,19 +12027,19 @@
         <v>1011660</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>952842</v>
+        <v>949199</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>1077823</v>
+        <v>1071476</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.1461454489783447</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.1376485349650236</v>
+        <v>0.1371223386564296</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.1557035103146694</v>
+        <v>0.1547865989493796</v>
       </c>
     </row>
     <row r="56">
@@ -12056,19 +12056,19 @@
         <v>2828351</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>2780050</v>
+        <v>2777152</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>2874127</v>
+        <v>2870663</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.8347641051998381</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.8205085216080663</v>
+        <v>0.8196531462809147</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.8482744923157413</v>
+        <v>0.8472519930217594</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>2817</v>
@@ -12077,19 +12077,19 @@
         <v>2998659</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>2953978</v>
+        <v>2952462</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>3041870</v>
+        <v>3036258</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.84849834961297</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.8358552748143335</v>
+        <v>0.8354263687885073</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.8607251102681081</v>
+        <v>0.8591373085241986</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>5544</v>
@@ -12098,19 +12098,19 @@
         <v>5827010</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>5757701</v>
+        <v>5765015</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>5884490</v>
+        <v>5887654</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.8417759390443775</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.8317635839416881</v>
+        <v>0.8328201395149588</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.8500796444039701</v>
+        <v>0.8505367512249343</v>
       </c>
     </row>
     <row r="57">
@@ -12496,7 +12496,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11018</v>
+        <v>12198</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01111850836422394</v>
@@ -12505,7 +12505,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03455604110026374</v>
+        <v>0.03825581960536895</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -12514,19 +12514,19 @@
         <v>1827</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5274</v>
+        <v>5016</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.005779042948375664</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.001416068518810807</v>
+        <v>0.001397091515662295</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01668756299142488</v>
+        <v>0.01587003589787337</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -12535,19 +12535,19 @@
         <v>5372</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1824</v>
+        <v>1711</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>14453</v>
+        <v>13045</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.008460484854757172</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.002873052677181962</v>
+        <v>0.002694454114854513</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02276408138529849</v>
+        <v>0.02054575905710585</v>
       </c>
     </row>
     <row r="6">
@@ -12580,7 +12580,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>3633</v>
+        <v>2719</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.00174433267470266</v>
@@ -12589,7 +12589,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01149395138807234</v>
+        <v>0.008601495896534037</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1</v>
@@ -12601,7 +12601,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>2797</v>
+        <v>2775</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0008683410972059129</v>
@@ -12610,7 +12610,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.004406129278814696</v>
+        <v>0.004370337449413039</v>
       </c>
     </row>
     <row r="7">
@@ -12627,19 +12627,19 @@
         <v>52812</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>40581</v>
+        <v>39325</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>69787</v>
+        <v>67948</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1656365636333022</v>
+        <v>0.1656365636333023</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1272745718674168</v>
+        <v>0.1233349259678435</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.218875434117811</v>
+        <v>0.2131051849890127</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>37</v>
@@ -12648,19 +12648,19 @@
         <v>32606</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>22209</v>
+        <v>22283</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>46446</v>
+        <v>45998</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1031623852778426</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07026948691509789</v>
+        <v>0.07050187764121689</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1469529648550958</v>
+        <v>0.1455349519875674</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>87</v>
@@ -12669,19 +12669,19 @@
         <v>85418</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>68011</v>
+        <v>68765</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>104288</v>
+        <v>106720</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1345364774129573</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1071195045604892</v>
+        <v>0.1083078685448548</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1642569063847172</v>
+        <v>0.1680871933721652</v>
       </c>
     </row>
     <row r="8">
@@ -12698,19 +12698,19 @@
         <v>262488</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>244837</v>
+        <v>246777</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>275153</v>
+        <v>275905</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8232449280024738</v>
+        <v>0.823244928002474</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7678880895880678</v>
+        <v>0.7739719648113155</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8629665120888504</v>
+        <v>0.8653268238034072</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>497</v>
@@ -12719,19 +12719,19 @@
         <v>281078</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>266818</v>
+        <v>267896</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>291165</v>
+        <v>291331</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8893142390990791</v>
+        <v>0.889314239099079</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8441974719873345</v>
+        <v>0.8476077708546145</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9212315061112638</v>
+        <v>0.9217567672644069</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>776</v>
@@ -12740,19 +12740,19 @@
         <v>543565</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>524030</v>
+        <v>522003</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>561554</v>
+        <v>560205</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8561346966350797</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8253665768899875</v>
+        <v>0.8221733597093834</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8844682250011565</v>
+        <v>0.8823431830273374</v>
       </c>
     </row>
     <row r="9">
@@ -12891,19 +12891,19 @@
         <v>5790</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>933</v>
+        <v>941</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>18007</v>
+        <v>20536</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.01093945184844368</v>
+        <v>0.01093945184844367</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.001763117550686416</v>
+        <v>0.001776939234818831</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03401911232137052</v>
+        <v>0.0387969087484304</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>7</v>
@@ -12912,19 +12912,19 @@
         <v>5844</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2480</v>
+        <v>2307</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>12016</v>
+        <v>11369</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.01071938624994848</v>
+        <v>0.01071938624994847</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.004548044515792148</v>
+        <v>0.004231632038524366</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02204044974519992</v>
+        <v>0.02085337493517684</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>10</v>
@@ -12933,19 +12933,19 @@
         <v>11635</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5878</v>
+        <v>5608</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>26231</v>
+        <v>26944</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.01082779158257285</v>
+        <v>0.01082779158257286</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.005470661835711261</v>
+        <v>0.005219396680671351</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02441197454645996</v>
+        <v>0.02507549262567837</v>
       </c>
     </row>
     <row r="12">
@@ -12962,19 +12962,19 @@
         <v>10901</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4688</v>
+        <v>3840</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>25444</v>
+        <v>24076</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02059530865724877</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0088573456410075</v>
+        <v>0.007255588631776472</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04806990047453741</v>
+        <v>0.04548546990085711</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -12983,19 +12983,19 @@
         <v>6596</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2530</v>
+        <v>2639</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>19204</v>
+        <v>17284</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0120981248462461</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.004641128821914667</v>
+        <v>0.00484004270141101</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03522357374394766</v>
+        <v>0.03170155223111762</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>12</v>
@@ -13004,19 +13004,19 @@
         <v>17497</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>8413</v>
+        <v>8351</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>31921</v>
+        <v>32804</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01628387692972005</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.007829363117213104</v>
+        <v>0.007772275383072396</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02970724750783219</v>
+        <v>0.03052949828525671</v>
       </c>
     </row>
     <row r="13">
@@ -13033,19 +13033,19 @@
         <v>69235</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>51310</v>
+        <v>52110</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>88858</v>
+        <v>92466</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1308030560674713</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09693726793942661</v>
+        <v>0.0984486820816748</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1678758253881292</v>
+        <v>0.174692020158812</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>70</v>
@@ -13054,19 +13054,19 @@
         <v>62255</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>49367</v>
+        <v>49161</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>79878</v>
+        <v>77934</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1141871414644845</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09054809582102369</v>
+        <v>0.09017075979987411</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1465102428343972</v>
+        <v>0.1429455568811391</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>118</v>
@@ -13075,19 +13075,19 @@
         <v>131490</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>108486</v>
+        <v>109016</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>159013</v>
+        <v>158646</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1223722179221951</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1009633597641769</v>
+        <v>0.1014565263193527</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1479866990409142</v>
+        <v>0.1476447765780872</v>
       </c>
     </row>
     <row r="14">
@@ -13104,19 +13104,19 @@
         <v>443381</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>420665</v>
+        <v>419289</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>464521</v>
+        <v>462195</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8376621834268363</v>
+        <v>0.8376621834268361</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7947457222859144</v>
+        <v>0.7921462205301396</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.877601480242771</v>
+        <v>0.8732056222271275</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>632</v>
@@ -13125,19 +13125,19 @@
         <v>470506</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>451839</v>
+        <v>452747</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>484648</v>
+        <v>485003</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8629953474393208</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8287568880082131</v>
+        <v>0.8304218766946529</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8889343532992167</v>
+        <v>0.8895849166145915</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>956</v>
@@ -13146,19 +13146,19 @@
         <v>913887</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>885502</v>
+        <v>886200</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>940432</v>
+        <v>939510</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8505161135655119</v>
+        <v>0.8505161135655122</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8240988500114909</v>
+        <v>0.8247489609823787</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8752203124597854</v>
+        <v>0.874362502730073</v>
       </c>
     </row>
     <row r="15">
@@ -13297,19 +13297,19 @@
         <v>5291</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2162</v>
+        <v>2094</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11610</v>
+        <v>11307</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01674369897212343</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.006840985918906221</v>
+        <v>0.006627330698821142</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03674122034464073</v>
+        <v>0.03578135770539146</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>16</v>
@@ -13318,19 +13318,19 @@
         <v>11325</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6758</v>
+        <v>6827</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17831</v>
+        <v>18071</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03189188055944515</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01902995028772931</v>
+        <v>0.01922469857400521</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05021164972288987</v>
+        <v>0.05088702762834674</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>22</v>
@@ -13339,19 +13339,19 @@
         <v>16616</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>10441</v>
+        <v>10948</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>25248</v>
+        <v>25267</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02475933774683776</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01555741316022543</v>
+        <v>0.01631316772540603</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03762174154183796</v>
+        <v>0.03764999232272699</v>
       </c>
     </row>
     <row r="18">
@@ -13371,7 +13371,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5795</v>
+        <v>5444</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.004854600139084856</v>
@@ -13380,7 +13380,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01833801660418425</v>
+        <v>0.01722876092990817</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
@@ -13392,7 +13392,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>3336</v>
+        <v>3381</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.001905407455355479</v>
@@ -13401,7 +13401,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.009394691557544323</v>
+        <v>0.009521971008409192</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>3</v>
@@ -13410,19 +13410,19 @@
         <v>2211</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>5818</v>
+        <v>6207</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.003294039018693332</v>
+        <v>0.003294039018693331</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.000890703723430591</v>
+        <v>0.0009122687126735905</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.008669797553664356</v>
+        <v>0.009249243092376786</v>
       </c>
     </row>
     <row r="19">
@@ -13439,19 +13439,19 @@
         <v>45511</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>33370</v>
+        <v>33540</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>58896</v>
+        <v>60359</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.1440250545071674</v>
+        <v>0.1440250545071673</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1056049537296386</v>
+        <v>0.1061426850836059</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1863837623022011</v>
+        <v>0.1910124054107674</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>64</v>
@@ -13460,19 +13460,19 @@
         <v>51913</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>41260</v>
+        <v>41444</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>64600</v>
+        <v>66107</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1461851876665411</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.116186680992899</v>
+        <v>0.1167042417337688</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1819125075970252</v>
+        <v>0.1861561474602821</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>111</v>
@@ -13481,19 +13481,19 @@
         <v>97424</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>82397</v>
+        <v>81218</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>115133</v>
+        <v>117491</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1451680859008043</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1227776078022287</v>
+        <v>0.1210202265361314</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.17155614275612</v>
+        <v>0.1750696311091421</v>
       </c>
     </row>
     <row r="20">
@@ -13510,19 +13510,19 @@
         <v>263657</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>248204</v>
+        <v>248513</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>275803</v>
+        <v>275719</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8343766463816242</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7854736057276875</v>
+        <v>0.7864522535129898</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.872812650019383</v>
+        <v>0.8725463913624814</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>453</v>
@@ -13531,19 +13531,19 @@
         <v>291202</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>278066</v>
+        <v>276314</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>303327</v>
+        <v>303290</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8200175243186584</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7830270514924097</v>
+        <v>0.7780929623060057</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8541621141372859</v>
+        <v>0.8540569440466426</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>758</v>
@@ -13552,19 +13552,19 @@
         <v>554860</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>537299</v>
+        <v>534664</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>571558</v>
+        <v>571074</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8267785373336645</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8006109334275167</v>
+        <v>0.7966844055317185</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8516598885681708</v>
+        <v>0.8509375444591539</v>
       </c>
     </row>
     <row r="21">
@@ -13706,7 +13706,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3365</v>
+        <v>3102</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.001622938574453607</v>
@@ -13715,7 +13715,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.00927120794471438</v>
+        <v>0.008546125697506384</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3</v>
@@ -13724,19 +13724,19 @@
         <v>4236</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>715</v>
+        <v>399</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>13100</v>
+        <v>12335</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01005148883488596</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.001696466811029816</v>
+        <v>0.0009459041056660192</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03108671510164904</v>
+        <v>0.0292729092375261</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4</v>
@@ -13745,19 +13745,19 @@
         <v>4825</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>940</v>
+        <v>803</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>14056</v>
+        <v>12429</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.006150921803790824</v>
+        <v>0.006150921803790826</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.001198290507455989</v>
+        <v>0.0010241441635894</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01791927607077135</v>
+        <v>0.01584479900281178</v>
       </c>
     </row>
     <row r="24">
@@ -13774,19 +13774,19 @@
         <v>15262</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6495</v>
+        <v>6698</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>31456</v>
+        <v>33770</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.04204251496406784</v>
+        <v>0.04204251496406785</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01789138371962066</v>
+        <v>0.01845074070278887</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08665363921890033</v>
+        <v>0.09303013377713752</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>14</v>
@@ -13795,19 +13795,19 @@
         <v>11055</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>5818</v>
+        <v>5919</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>18992</v>
+        <v>19227</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02623383491919136</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01380711630508163</v>
+        <v>0.01404576379107026</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04506861161911411</v>
+        <v>0.04562816618004146</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>21</v>
@@ -13816,19 +13816,19 @@
         <v>26316</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>15431</v>
+        <v>15283</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>45347</v>
+        <v>43424</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03354978063735971</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01967184242323924</v>
+        <v>0.01948345184245659</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05781072167880644</v>
+        <v>0.05535966761333236</v>
       </c>
     </row>
     <row r="25">
@@ -13845,19 +13845,19 @@
         <v>70665</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>51433</v>
+        <v>51014</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>95566</v>
+        <v>93019</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.1946665397136159</v>
+        <v>0.194666539713616</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1416877704601252</v>
+        <v>0.1405339186197879</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2632648990131953</v>
+        <v>0.2562477445636005</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>63</v>
@@ -13866,19 +13866,19 @@
         <v>61268</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>46819</v>
+        <v>46621</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>80644</v>
+        <v>79001</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1453927648023592</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1111045117086365</v>
+        <v>0.110634193097558</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1913733572982877</v>
+        <v>0.1874745322317826</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>100</v>
@@ -13887,19 +13887,19 @@
         <v>131932</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>106545</v>
+        <v>107806</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>161477</v>
+        <v>164867</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.1681956972139637</v>
+        <v>0.1681956972139638</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1358300919062946</v>
+        <v>0.1374379176310896</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2058609756373866</v>
+        <v>0.2101826380774019</v>
       </c>
     </row>
     <row r="26">
@@ -13916,19 +13916,19 @@
         <v>276489</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>251871</v>
+        <v>252379</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>299763</v>
+        <v>296588</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.7616680067478626</v>
+        <v>0.7616680067478627</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6938523326268922</v>
+        <v>0.6952515481510078</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8257844332401998</v>
+        <v>0.8170390852392512</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>518</v>
@@ -13937,19 +13937,19 @@
         <v>344836</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>325650</v>
+        <v>326810</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>360946</v>
+        <v>360503</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8183219114435635</v>
+        <v>0.8183219114435634</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7727922431032076</v>
+        <v>0.7755461163854348</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8565525301074716</v>
+        <v>0.8555001382512604</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>761</v>
@@ -13958,19 +13958,19 @@
         <v>621324</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>587817</v>
+        <v>585371</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>648040</v>
+        <v>646444</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7921036003448856</v>
+        <v>0.7921036003448857</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7493862656738373</v>
+        <v>0.7462672781276078</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8261620870026181</v>
+        <v>0.8241281373106898</v>
       </c>
     </row>
     <row r="27">
@@ -14109,19 +14109,19 @@
         <v>4315</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1418</v>
+        <v>1493</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>10053</v>
+        <v>10411</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.02105823238174074</v>
+        <v>0.02105823238174073</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.006921463338925515</v>
+        <v>0.007285677217169668</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04905693294467856</v>
+        <v>0.05080499975494031</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2</v>
@@ -14133,7 +14133,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2641</v>
+        <v>2933</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.003627378375146374</v>
@@ -14142,7 +14142,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0115595603768518</v>
+        <v>0.01283783849366275</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7</v>
@@ -14151,19 +14151,19 @@
         <v>5144</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2091</v>
+        <v>2131</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>10750</v>
+        <v>10926</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01186887789025341</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.004823450510640384</v>
+        <v>0.004916860377688744</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02480347836134163</v>
+        <v>0.02520888821524513</v>
       </c>
     </row>
     <row r="30">
@@ -14183,16 +14183,16 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5633</v>
+        <v>5671</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.008524664816316786</v>
+        <v>0.008524664816316785</v>
       </c>
       <c r="H30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02748886338215805</v>
+        <v>0.02767246229480479</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>3</v>
@@ -14201,19 +14201,19 @@
         <v>1330</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>4219</v>
+        <v>3830</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.005820137608324201</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.001774365058579543</v>
+        <v>0.001766020850617121</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01846703596960369</v>
+        <v>0.01676133584121646</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>5</v>
@@ -14222,19 +14222,19 @@
         <v>3077</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>991</v>
+        <v>1037</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>7661</v>
+        <v>7897</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.007098867822278851</v>
+        <v>0.007098867822278852</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.002287187096781044</v>
+        <v>0.002393206612437691</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01767562617289311</v>
+        <v>0.01822165603444473</v>
       </c>
     </row>
     <row r="31">
@@ -14251,19 +14251,19 @@
         <v>16595</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>10458</v>
+        <v>10171</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>27536</v>
+        <v>26533</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.08098392504563823</v>
+        <v>0.08098392504563821</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05103386524795929</v>
+        <v>0.04963306724887757</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1343735963254767</v>
+        <v>0.1294793275106325</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>27</v>
@@ -14272,19 +14272,19 @@
         <v>14533</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>9706</v>
+        <v>9565</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>20947</v>
+        <v>20604</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.06360352197642498</v>
+        <v>0.06360352197642499</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04247956989114943</v>
+        <v>0.0418607078770665</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.09167567397539819</v>
+        <v>0.090175562829303</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>44</v>
@@ -14293,19 +14293,19 @@
         <v>31128</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>22465</v>
+        <v>22586</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>42263</v>
+        <v>42449</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.07182116773337387</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.05183440319475199</v>
+        <v>0.05211330856996998</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.09751305661490288</v>
+        <v>0.09794214731371399</v>
       </c>
     </row>
     <row r="32">
@@ -14322,19 +14322,19 @@
         <v>182261</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>171009</v>
+        <v>171982</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>189171</v>
+        <v>189178</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.8894331777563044</v>
+        <v>0.8894331777563043</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8345258786504245</v>
+        <v>0.8392710398037847</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.923154322071453</v>
+        <v>0.9231868574686614</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>462</v>
@@ -14343,19 +14343,19 @@
         <v>211795</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>205029</v>
+        <v>205121</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>216883</v>
+        <v>217014</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.9269489620401044</v>
+        <v>0.9269489620401042</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8973361295180835</v>
+        <v>0.8977405452648594</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9492199544571566</v>
+        <v>0.9497911059686059</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>716</v>
@@ -14364,19 +14364,19 @@
         <v>394056</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>382022</v>
+        <v>382139</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>403738</v>
+        <v>403456</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.9092110865540939</v>
+        <v>0.9092110865540938</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8814448797223869</v>
+        <v>0.8817164348050243</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9315515314695829</v>
+        <v>0.9308998580266543</v>
       </c>
     </row>
     <row r="33">
@@ -14515,19 +14515,19 @@
         <v>15767</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>9387</v>
+        <v>9586</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>23873</v>
+        <v>23627</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.05824338416366472</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.03467432766258829</v>
+        <v>0.03541081290602646</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.08818772091416385</v>
+        <v>0.08727750514366996</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>17</v>
@@ -14536,19 +14536,19 @@
         <v>11653</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>6930</v>
+        <v>7082</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>18693</v>
+        <v>18857</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.04418257315213989</v>
+        <v>0.04418257315213987</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02627450095681127</v>
+        <v>0.02685095589157237</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.07087278243455851</v>
+        <v>0.07149576695746362</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>35</v>
@@ -14557,19 +14557,19 @@
         <v>27420</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>19183</v>
+        <v>19940</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>37517</v>
+        <v>37673</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.05130448893520641</v>
+        <v>0.05130448893520642</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03589257176218311</v>
+        <v>0.03730904604704976</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.07019717589239144</v>
+        <v>0.0704877519351144</v>
       </c>
     </row>
     <row r="36">
@@ -14589,7 +14589,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5382</v>
+        <v>5347</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.003979887642238326</v>
@@ -14598,7 +14598,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.0198796219627436</v>
+        <v>0.01975375862326996</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>0</v>
@@ -14623,7 +14623,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>5923</v>
+        <v>5941</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.002015845642961584</v>
@@ -14632,7 +14632,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01108227491304298</v>
+        <v>0.01111643836700529</v>
       </c>
     </row>
     <row r="37">
@@ -14649,19 +14649,19 @@
         <v>27241</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>19401</v>
+        <v>19518</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>36798</v>
+        <v>38152</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1006300326247339</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.07166740609787774</v>
+        <v>0.07210148770924034</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1359327175956103</v>
+        <v>0.1409356889247308</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>33</v>
@@ -14670,19 +14670,19 @@
         <v>24425</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>17649</v>
+        <v>16906</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>35371</v>
+        <v>34142</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.09260760673242609</v>
+        <v>0.09260760673242605</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.06691391597382167</v>
+        <v>0.06409692488577222</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.134108687531424</v>
+        <v>0.1294492542540363</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>66</v>
@@ -14691,19 +14691,19 @@
         <v>51667</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>40131</v>
+        <v>40649</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>66190</v>
+        <v>64981</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.09667103106364558</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.0750869737463937</v>
+        <v>0.07605723259863559</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1238451027239017</v>
+        <v>0.1215825890891043</v>
       </c>
     </row>
     <row r="38">
@@ -14720,19 +14720,19 @@
         <v>226621</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>215510</v>
+        <v>213915</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>237340</v>
+        <v>237107</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.8371466955693631</v>
+        <v>0.8371466955693629</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.7961006414095368</v>
+        <v>0.7902097320170721</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.8767409999218825</v>
+        <v>0.8758805165140209</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>410</v>
@@ -14741,19 +14741,19 @@
         <v>227672</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>217319</v>
+        <v>216239</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>236068</v>
+        <v>236972</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.8632098201154342</v>
+        <v>0.8632098201154339</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8239596655092285</v>
+        <v>0.8198621314025428</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.8950437262385603</v>
+        <v>0.8984733608832547</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>729</v>
@@ -14762,19 +14762,19 @@
         <v>454293</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>437164</v>
+        <v>438226</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>468608</v>
+        <v>467326</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.8500086343581865</v>
+        <v>0.8500086343581864</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.8179589065349199</v>
+        <v>0.8199470820393103</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.8767936054946102</v>
+        <v>0.874393237439998</v>
       </c>
     </row>
     <row r="39">
@@ -14913,19 +14913,19 @@
         <v>8773</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>4216</v>
+        <v>4052</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>16536</v>
+        <v>16838</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01235736061591602</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.005938857779032511</v>
+        <v>0.005707416934805046</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.02329117035643831</v>
+        <v>0.02371708595421565</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>10</v>
@@ -14934,19 +14934,19 @@
         <v>7619</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>3648</v>
+        <v>3857</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>13638</v>
+        <v>13833</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.0100078763982699</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.004791925689004837</v>
+        <v>0.005066105203772222</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01791423215764051</v>
+        <v>0.0181712883009402</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>18</v>
@@ -14955,19 +14955,19 @@
         <v>16392</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>9758</v>
+        <v>9802</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>25503</v>
+        <v>25816</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01114165081478096</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.006632603117648335</v>
+        <v>0.006662331620998349</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01733468732149836</v>
+        <v>0.01754694291669185</v>
       </c>
     </row>
     <row r="42">
@@ -14984,19 +14984,19 @@
         <v>7281</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2245</v>
+        <v>2313</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>21277</v>
+        <v>20112</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.01025564259538012</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.00316163100729325</v>
+        <v>0.003258212752377418</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.02996849398809926</v>
+        <v>0.02832846245126821</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>9</v>
@@ -15005,19 +15005,19 @@
         <v>7142</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>3670</v>
+        <v>3766</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>13694</v>
+        <v>13573</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.009381840428670889</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.004820617163860663</v>
+        <v>0.004947606781770637</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.01798879643350671</v>
+        <v>0.01782903729259375</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>13</v>
@@ -15026,19 +15026,19 @@
         <v>14423</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>7766</v>
+        <v>7663</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>30034</v>
+        <v>28027</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.009803505121826143</v>
+        <v>0.009803505121826142</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.005278343932394028</v>
+        <v>0.005208495342577315</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.02041378472263529</v>
+        <v>0.01905013429646136</v>
       </c>
     </row>
     <row r="43">
@@ -15055,19 +15055,19 @@
         <v>110962</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>88918</v>
+        <v>87895</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>138086</v>
+        <v>135032</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>0.1562925486618984</v>
+        <v>0.1562925486618985</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1252428478732673</v>
+        <v>0.1238018952931402</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.194497255745113</v>
+        <v>0.1901949822687992</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>137</v>
@@ -15076,19 +15076,19 @@
         <v>123907</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>103758</v>
+        <v>105294</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>146451</v>
+        <v>145655</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1627631066520371</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1362955814696941</v>
+        <v>0.1383132920207086</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1923763699246435</v>
+        <v>0.1913313765004595</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>221</v>
@@ -15097,19 +15097,19 @@
         <v>234870</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>209438</v>
+        <v>204053</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>272963</v>
+        <v>267704</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1596406540496015</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1423546352191812</v>
+        <v>0.138694612031781</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.185532594855468</v>
+        <v>0.181958253588183</v>
       </c>
     </row>
     <row r="44">
@@ -15126,19 +15126,19 @@
         <v>582948</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>555572</v>
+        <v>556230</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>607034</v>
+        <v>607013</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.8210944481268052</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.7825342531795901</v>
+        <v>0.7834607226250576</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.8550196299345958</v>
+        <v>0.8549904877827734</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>792</v>
@@ -15147,19 +15147,19 @@
         <v>622605</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>599896</v>
+        <v>599339</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>644625</v>
+        <v>641010</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.8178471765210219</v>
+        <v>0.817847176521022</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.7880172701004909</v>
+        <v>0.7872854946557678</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.8467728114708367</v>
+        <v>0.8420233683293077</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1290</v>
@@ -15168,19 +15168,19 @@
         <v>1205554</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1165622</v>
+        <v>1172718</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1233806</v>
+        <v>1237490</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.8194141900137913</v>
+        <v>0.8194141900137912</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.7922723795256864</v>
+        <v>0.7970951838587493</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.8386171799978632</v>
+        <v>0.8411211502062186</v>
       </c>
     </row>
     <row r="45">
@@ -15319,19 +15319,19 @@
         <v>19518</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>11328</v>
+        <v>12438</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>30305</v>
+        <v>31452</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.02451274655625996</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.01422699261844258</v>
+        <v>0.01562166847760985</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.03806063149576545</v>
+        <v>0.03950139474232075</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>14</v>
@@ -15340,19 +15340,19 @@
         <v>11883</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>6702</v>
+        <v>7024</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>20209</v>
+        <v>21236</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0.01432060192078103</v>
+        <v>0.01432060192078104</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.008077155220077414</v>
+        <v>0.008464146906303621</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.02435405589404768</v>
+        <v>0.02559198049364096</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>31</v>
@@ -15361,19 +15361,19 @@
         <v>31401</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>21096</v>
+        <v>20272</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>45467</v>
+        <v>44474</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.0193114432887798</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.01297418712443514</v>
+        <v>0.01246735139248367</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.02796210131451927</v>
+        <v>0.02735123600468147</v>
       </c>
     </row>
     <row r="48">
@@ -15393,7 +15393,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>7567</v>
+        <v>7492</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.001623131152661751</v>
@@ -15402,7 +15402,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.00950314410406751</v>
+        <v>0.009409886897714787</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>2</v>
@@ -15414,7 +15414,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>4593</v>
+        <v>4968</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.001620665981687112</v>
@@ -15423,7 +15423,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.005534671993792548</v>
+        <v>0.005987488033097736</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>3</v>
@@ -15432,19 +15432,19 @@
         <v>2637</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>8682</v>
+        <v>7843</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.001621873114996091</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.0003658143470655416</v>
+        <v>0.0003606593431150115</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.005339144605642467</v>
+        <v>0.004823631003062828</v>
       </c>
     </row>
     <row r="49">
@@ -15461,19 +15461,19 @@
         <v>105390</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>85425</v>
+        <v>86444</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>129512</v>
+        <v>128623</v>
       </c>
       <c r="G49" s="6" t="n">
-        <v>0.1323617019565861</v>
+        <v>0.132361701956586</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1072870624010436</v>
+        <v>0.1085664688649085</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1626565489000415</v>
+        <v>0.1615400544788608</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>87</v>
@@ -15482,19 +15482,19 @@
         <v>85220</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>69064</v>
+        <v>69060</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>103629</v>
+        <v>103655</v>
       </c>
       <c r="N49" s="6" t="n">
-        <v>0.1026992501141158</v>
+        <v>0.1026992501141159</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.08322975801759268</v>
+        <v>0.08322480053431555</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1248842189983343</v>
+        <v>0.1249154979863264</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>172</v>
@@ -15503,19 +15503,19 @@
         <v>190610</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>164574</v>
+        <v>164576</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>221579</v>
+        <v>221771</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.1172242197869697</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.101212120014975</v>
+        <v>0.1012135635989276</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.1362695425002332</v>
+        <v>0.1363877258948055</v>
       </c>
     </row>
     <row r="50">
@@ -15532,19 +15532,19 @@
         <v>670028</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>646186</v>
+        <v>646413</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>691736</v>
+        <v>690325</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.8415024203344923</v>
+        <v>0.8415024203344922</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.8115584775736472</v>
+        <v>0.8118443153720363</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.8687656570068909</v>
+        <v>0.8669938773895818</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>957</v>
@@ -15553,19 +15553,19 @@
         <v>731356</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>710898</v>
+        <v>710289</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>748688</v>
+        <v>749693</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.881359481983416</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.8567062127046809</v>
+        <v>0.855972545938337</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.9022464563025783</v>
+        <v>0.9034580592451427</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>1615</v>
@@ -15574,19 +15574,19 @@
         <v>1401383</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>1369094</v>
+        <v>1371431</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>1428713</v>
+        <v>1427752</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.8618424638092544</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.8419845534373648</v>
+        <v>0.8434217854847778</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.8786498659918269</v>
+        <v>0.87805902292987</v>
       </c>
     </row>
     <row r="51">
@@ -15725,19 +15725,19 @@
         <v>63589</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>49560</v>
+        <v>48075</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>85026</v>
+        <v>82214</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.01812173056499867</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.01412378218812643</v>
+        <v>0.01370057905493988</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.02423100413167514</v>
+        <v>0.02342961424638692</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>72</v>
@@ -15746,19 +15746,19 @@
         <v>55216</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>43120</v>
+        <v>43553</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>68897</v>
+        <v>71438</v>
       </c>
       <c r="N53" s="6" t="n">
-        <v>0.01483860713574093</v>
+        <v>0.01483860713574092</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.0115881332167316</v>
+        <v>0.01170442330296462</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.01851518930146876</v>
+        <v>0.01919816825169813</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>132</v>
@@ -15767,19 +15767,19 @@
         <v>118804</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>99421</v>
+        <v>98375</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>143454</v>
+        <v>143492</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.01643200827255385</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.01375111531661126</v>
+        <v>0.01360645402956358</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.01984132970470993</v>
+        <v>0.01984663000468807</v>
       </c>
     </row>
     <row r="54">
@@ -15796,19 +15796,19 @@
         <v>39095</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>24885</v>
+        <v>25225</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>60301</v>
+        <v>60613</v>
       </c>
       <c r="G54" s="6" t="n">
-        <v>0.01114135118916345</v>
+        <v>0.01114135118916344</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.0070919013833028</v>
+        <v>0.007188666546250095</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.01718468472578034</v>
+        <v>0.01727377707616353</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>36</v>
@@ -15817,19 +15817,19 @@
         <v>28695</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>19291</v>
+        <v>19614</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>39927</v>
+        <v>43249</v>
       </c>
       <c r="N54" s="6" t="n">
-        <v>0.007711576726432729</v>
+        <v>0.007711576726432726</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.005184307121190551</v>
+        <v>0.0052710664931506</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.0107299027287008</v>
+        <v>0.01162276458387457</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>59</v>
@@ -15838,19 +15838,19 @@
         <v>67790</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>50267</v>
+        <v>50167</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>92846</v>
+        <v>91795</v>
       </c>
       <c r="U54" s="6" t="n">
-        <v>0.009376152136307764</v>
+        <v>0.009376152136307768</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.006952551172476206</v>
+        <v>0.006938665329113938</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.01284165507955954</v>
+        <v>0.01269637081812902</v>
       </c>
     </row>
     <row r="55">
@@ -15867,19 +15867,19 @@
         <v>498412</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>445818</v>
+        <v>452598</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>543121</v>
+        <v>545216</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.1420394210487126</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1270510305368305</v>
+        <v>0.1289830764366077</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.1547807175627253</v>
+        <v>0.1553778749254128</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>518</v>
@@ -15888,19 +15888,19 @@
         <v>456126</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>418003</v>
+        <v>417781</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>500276</v>
+        <v>494991</v>
       </c>
       <c r="N55" s="6" t="n">
-        <v>0.1225787892336193</v>
+        <v>0.1225787892336192</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.1123336430726388</v>
+        <v>0.1122739756566129</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.1344436053884401</v>
+        <v>0.1330230979951428</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>919</v>
@@ -15909,19 +15909,19 @@
         <v>954538</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>889693</v>
+        <v>893379</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>1014616</v>
+        <v>1020173</v>
       </c>
       <c r="U55" s="6" t="n">
-        <v>0.1320236345236051</v>
+        <v>0.1320236345236052</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.1230547298212205</v>
+        <v>0.1235645998402775</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.1403330340035073</v>
+        <v>0.1411017337240976</v>
       </c>
     </row>
     <row r="56">
@@ -15938,19 +15938,19 @@
         <v>2907874</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>2857436</v>
+        <v>2853501</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>2961983</v>
+        <v>2958373</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.8286974971971252</v>
+        <v>0.8286974971971254</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.81432338270462</v>
+        <v>0.8132019734770751</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.8441177133832328</v>
+        <v>0.8430890844304409</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>4721</v>
@@ -15959,19 +15959,19 @@
         <v>3181049</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>3138152</v>
+        <v>3137718</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>3221678</v>
+        <v>3220370</v>
       </c>
       <c r="N56" s="6" t="n">
-        <v>0.854871026904207</v>
+        <v>0.8548710269042071</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.8433428135760502</v>
+        <v>0.843226212228829</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.8657894255394163</v>
+        <v>0.8654380448282859</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>7601</v>
@@ -15980,19 +15980,19 @@
         <v>6088923</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>6018654</v>
+        <v>6017052</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>6154429</v>
+        <v>6154848</v>
       </c>
       <c r="U56" s="6" t="n">
-        <v>0.842168205067533</v>
+        <v>0.8421682050675333</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.8324492023372801</v>
+        <v>0.8322276475763386</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.8512284510158548</v>
+        <v>0.8512863954237714</v>
       </c>
     </row>
     <row r="57">
